--- a/Registro diario_DICIEMBRE25.xlsx
+++ b/Registro diario_DICIEMBRE25.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12580" tabRatio="605" firstSheet="26" activeTab="33"/>
+    <workbookView windowWidth="15740" windowHeight="12580" tabRatio="605" firstSheet="23" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Leyenda" sheetId="34" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="141">
   <si>
     <t>LEYENDA</t>
   </si>
@@ -341,6 +341,12 @@
     <t>Día: 6</t>
   </si>
   <si>
+    <t>EFECTIVO CUP</t>
+  </si>
+  <si>
+    <t>Pago Gestora Gercy</t>
+  </si>
+  <si>
     <t>Día: 7</t>
   </si>
   <si>
@@ -368,6 +374,9 @@
     <t>Día: 15</t>
   </si>
   <si>
+    <t>Pago Gestor Yeni</t>
+  </si>
+  <si>
     <t>Día: 16</t>
   </si>
   <si>
@@ -375,6 +384,9 @@
   </si>
   <si>
     <t>Día: 18</t>
+  </si>
+  <si>
+    <t>Saqué yo</t>
   </si>
   <si>
     <t>Día: 19</t>
@@ -465,16 +477,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="#,##0.0"/>
+    <numFmt numFmtId="179" formatCode="#,##0.0"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,18 +526,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -536,11 +542,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -548,6 +553,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -560,17 +573,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -583,14 +595,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -598,18 +602,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -627,15 +624,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -643,7 +641,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,7 +670,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,13 +712,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,61 +832,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,91 +850,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,6 +986,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -991,6 +1030,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1012,54 +1075,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1068,154 +1083,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1223,7 +1229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1264,6 +1270,7 @@
     <xf numFmtId="177" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1626,7 +1633,7 @@
       </c>
     </row>
     <row r="4" spans="3:4">
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="38" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1751,8 +1758,8 @@
   <sheetPr/>
   <dimension ref="B1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD47"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -1761,13 +1768,13 @@
     <col min="3" max="3" width="21.3359375" customWidth="1"/>
     <col min="4" max="4" width="19.890625" customWidth="1"/>
     <col min="5" max="7" width="17.3359375" customWidth="1"/>
-    <col min="8" max="8" width="16.3359375" customWidth="1"/>
+    <col min="8" max="8" width="34.9375" customWidth="1"/>
     <col min="9" max="9" width="14.3359375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="4:6">
@@ -1778,7 +1785,7 @@
         <v>440</v>
       </c>
       <c r="F2">
-        <v>460</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -1798,7 +1805,7 @@
         <v>36</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="H3" s="28" t="s">
         <v>85</v>
@@ -1822,21 +1829,21 @@
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>50730</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
       </c>
       <c r="I4" s="4">
         <f>+C4+E5+F5+G4+H4+D5</f>
-        <v>0</v>
+        <v>110360</v>
       </c>
       <c r="J4" s="3">
         <f>+I4/F2</f>
-        <v>0</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -1852,7 +1859,7 @@
       </c>
       <c r="F5" s="4">
         <f>+F4*F2</f>
-        <v>0</v>
+        <v>59630</v>
       </c>
       <c r="G5" s="18"/>
       <c r="I5" s="18"/>
@@ -1869,7 +1876,7 @@
       </c>
       <c r="C8" s="2">
         <f>+I4</f>
-        <v>0</v>
+        <v>110360</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -1884,7 +1891,7 @@
       </c>
       <c r="C10" s="4">
         <f>+C42</f>
-        <v>0</v>
+        <v>2207.2</v>
       </c>
       <c r="D10" s="21"/>
     </row>
@@ -1979,7 +1986,7 @@
       </c>
       <c r="C24" s="2">
         <f>SUM(C10:C23)</f>
-        <v>0</v>
+        <v>2207.2</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -2046,7 +2053,7 @@
       </c>
       <c r="C37" s="4">
         <f>+I4*0.02</f>
-        <v>0</v>
+        <v>2207.2</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -2071,7 +2078,7 @@
       </c>
       <c r="C42" s="2">
         <f>SUM(C28:C41)</f>
-        <v>0</v>
+        <v>2207.2</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -2095,8 +2102,8 @@
   <sheetPr/>
   <dimension ref="B1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD47"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -2105,12 +2112,12 @@
     <col min="3" max="3" width="21.3359375" customWidth="1"/>
     <col min="4" max="4" width="19.890625" customWidth="1"/>
     <col min="5" max="7" width="17.3359375" customWidth="1"/>
-    <col min="8" max="8" width="16.3359375" customWidth="1"/>
+    <col min="8" max="8" width="34.9375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="4:6">
@@ -2121,7 +2128,7 @@
         <v>440</v>
       </c>
       <c r="F2">
-        <v>460</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -2141,7 +2148,7 @@
         <v>36</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="H3" s="28" t="s">
         <v>85</v>
@@ -2165,21 +2172,21 @@
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>37505</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
       </c>
       <c r="I4" s="4">
         <f>+C4+E5+F5+G4+H4+D5</f>
-        <v>0</v>
+        <v>235530</v>
       </c>
       <c r="J4" s="3">
         <f>+I4/F2</f>
-        <v>0</v>
+        <v>529.280898876405</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -2195,7 +2202,7 @@
       </c>
       <c r="F5" s="4">
         <f>+F4*F2</f>
-        <v>0</v>
+        <v>198025</v>
       </c>
       <c r="G5" s="18"/>
       <c r="I5" s="18"/>
@@ -2212,7 +2219,7 @@
       </c>
       <c r="C8" s="2">
         <f>+I4</f>
-        <v>0</v>
+        <v>235530</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -2227,7 +2234,7 @@
       </c>
       <c r="C10" s="4">
         <f>+C42</f>
-        <v>0</v>
+        <v>8710.6</v>
       </c>
       <c r="D10" s="21"/>
     </row>
@@ -2322,7 +2329,7 @@
       </c>
       <c r="C24" s="2">
         <f>SUM(C10:C23)</f>
-        <v>0</v>
+        <v>8710.6</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -2335,7 +2342,9 @@
       <c r="B28" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="3" t="s">
@@ -2359,7 +2368,9 @@
       <c r="B32" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="3" t="s">
@@ -2389,7 +2400,7 @@
       </c>
       <c r="C37" s="4">
         <f>+I4*0.02</f>
-        <v>0</v>
+        <v>4710.6</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -2414,7 +2425,7 @@
       </c>
       <c r="C42" s="2">
         <f>SUM(C28:C41)</f>
-        <v>0</v>
+        <v>8710.6</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -2438,8 +2449,8 @@
   <sheetPr/>
   <dimension ref="B1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD47"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -2448,12 +2459,12 @@
     <col min="3" max="3" width="21.3359375" customWidth="1"/>
     <col min="4" max="4" width="19.890625" customWidth="1"/>
     <col min="5" max="7" width="17.3359375" customWidth="1"/>
-    <col min="8" max="8" width="16.3359375" customWidth="1"/>
+    <col min="8" max="8" width="34.9375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="4:6">
@@ -2464,7 +2475,7 @@
         <v>440</v>
       </c>
       <c r="F2">
-        <v>460</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -2484,7 +2495,7 @@
         <v>36</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="H3" s="28" t="s">
         <v>85</v>
@@ -2508,21 +2519,21 @@
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>37825</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
       </c>
       <c r="I4" s="4">
         <f>+C4+E5+F5+G4+H4+D5</f>
-        <v>0</v>
+        <v>87665</v>
       </c>
       <c r="J4" s="3">
         <f>+I4/F2</f>
-        <v>0</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -2538,7 +2549,7 @@
       </c>
       <c r="F5" s="4">
         <f>+F4*F2</f>
-        <v>0</v>
+        <v>49840</v>
       </c>
       <c r="G5" s="18"/>
       <c r="I5" s="18"/>
@@ -2555,7 +2566,7 @@
       </c>
       <c r="C8" s="2">
         <f>+I4</f>
-        <v>0</v>
+        <v>87665</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -2570,7 +2581,7 @@
       </c>
       <c r="C10" s="4">
         <f>+C42</f>
-        <v>0</v>
+        <v>7153.3</v>
       </c>
       <c r="D10" s="21"/>
     </row>
@@ -2665,7 +2676,7 @@
       </c>
       <c r="C24" s="2">
         <f>SUM(C10:C23)</f>
-        <v>0</v>
+        <v>7153.3</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -2684,13 +2695,17 @@
       <c r="B29" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
@@ -2723,8 +2738,12 @@
       <c r="C35" s="4"/>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
+      <c r="B36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1400</v>
+      </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="23">
@@ -2732,7 +2751,7 @@
       </c>
       <c r="C37" s="4">
         <f>+I4*0.02</f>
-        <v>0</v>
+        <v>1753.3</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -2757,7 +2776,7 @@
       </c>
       <c r="C42" s="2">
         <f>SUM(C28:C41)</f>
-        <v>0</v>
+        <v>7153.3</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -2781,8 +2800,8 @@
   <sheetPr/>
   <dimension ref="B1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD47"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -2796,7 +2815,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="4:6">
@@ -2807,7 +2826,7 @@
         <v>440</v>
       </c>
       <c r="F2">
-        <v>460</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -2827,7 +2846,7 @@
         <v>36</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="H3" s="28" t="s">
         <v>85</v>
@@ -2851,21 +2870,21 @@
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>32550</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
       </c>
       <c r="I4" s="4">
         <f>+C4+E5+F5+G4+H4+D5</f>
-        <v>0</v>
+        <v>154925</v>
       </c>
       <c r="J4" s="3">
         <f>+I4/F2</f>
-        <v>0</v>
+        <v>348.14606741573</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -2881,7 +2900,7 @@
       </c>
       <c r="F5" s="4">
         <f>+F4*F2</f>
-        <v>0</v>
+        <v>122375</v>
       </c>
       <c r="G5" s="18"/>
       <c r="I5" s="18"/>
@@ -2898,7 +2917,7 @@
       </c>
       <c r="C8" s="2">
         <f>+I4</f>
-        <v>0</v>
+        <v>154925</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -2913,7 +2932,7 @@
       </c>
       <c r="C10" s="4">
         <f>+C42</f>
-        <v>0</v>
+        <v>7098.5</v>
       </c>
       <c r="D10" s="21"/>
     </row>
@@ -3008,7 +3027,7 @@
       </c>
       <c r="C24" s="2">
         <f>SUM(C10:C23)</f>
-        <v>0</v>
+        <v>7098.5</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -3027,7 +3046,9 @@
       <c r="B29" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
@@ -3045,7 +3066,9 @@
       <c r="B32" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="3" t="s">
@@ -3075,7 +3098,7 @@
       </c>
       <c r="C37" s="4">
         <f>+I4*0.02</f>
-        <v>0</v>
+        <v>3098.5</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -3100,7 +3123,7 @@
       </c>
       <c r="C42" s="2">
         <f>SUM(C28:C41)</f>
-        <v>0</v>
+        <v>7098.5</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -3125,7 +3148,7 @@
   <dimension ref="B1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD47"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -3134,12 +3157,12 @@
     <col min="3" max="3" width="21.3359375" customWidth="1"/>
     <col min="4" max="4" width="19.890625" customWidth="1"/>
     <col min="5" max="7" width="17.3359375" customWidth="1"/>
-    <col min="8" max="8" width="16.3359375" customWidth="1"/>
+    <col min="8" max="8" width="34.9375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="4:6">
@@ -3150,7 +3173,7 @@
         <v>440</v>
       </c>
       <c r="F2">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -3170,7 +3193,7 @@
         <v>36</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="H3" s="28" t="s">
         <v>85</v>
@@ -3194,21 +3217,21 @@
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>901</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>61275</v>
       </c>
       <c r="H4" s="4">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="I4" s="4">
         <f>+C4+E5+F5+G4+H4+D5</f>
-        <v>0</v>
+        <v>477225</v>
       </c>
       <c r="J4" s="3">
         <f>+I4/F2</f>
-        <v>0</v>
+        <v>1060.5</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -3224,7 +3247,7 @@
       </c>
       <c r="F5" s="4">
         <f>+F4*F2</f>
-        <v>0</v>
+        <v>405450</v>
       </c>
       <c r="G5" s="18"/>
       <c r="I5" s="18"/>
@@ -3241,7 +3264,7 @@
       </c>
       <c r="C8" s="2">
         <f>+I4</f>
-        <v>0</v>
+        <v>477225</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -3256,7 +3279,7 @@
       </c>
       <c r="C10" s="4">
         <f>+C42</f>
-        <v>0</v>
+        <v>13544.5</v>
       </c>
       <c r="D10" s="21"/>
     </row>
@@ -3351,7 +3374,7 @@
       </c>
       <c r="C24" s="2">
         <f>SUM(C10:C23)</f>
-        <v>0</v>
+        <v>13544.5</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -3370,7 +3393,9 @@
       <c r="B29" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
@@ -3388,7 +3413,9 @@
       <c r="B32" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="3" t="s">
@@ -3418,7 +3445,7 @@
       </c>
       <c r="C37" s="4">
         <f>+I4*0.02</f>
-        <v>0</v>
+        <v>9544.5</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -3443,7 +3470,7 @@
       </c>
       <c r="C42" s="2">
         <f>SUM(C28:C41)</f>
-        <v>0</v>
+        <v>13544.5</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -3467,22 +3494,22 @@
   <sheetPr/>
   <dimension ref="B1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD47"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="21.3359375" customWidth="1"/>
-    <col min="4" max="4" width="20.4453125" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
     <col min="5" max="7" width="17.3359375" customWidth="1"/>
-    <col min="8" max="8" width="16.3359375" customWidth="1"/>
+    <col min="8" max="8" width="34.9375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="4:6">
@@ -3493,7 +3520,7 @@
         <v>440</v>
       </c>
       <c r="F2">
-        <v>460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -3513,7 +3540,7 @@
         <v>36</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="H3" s="28" t="s">
         <v>85</v>
@@ -3528,7 +3555,7 @@
     <row r="4" spans="2:10">
       <c r="B4" s="15"/>
       <c r="C4" s="16">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="D4" s="16">
         <v>0</v>
@@ -3537,21 +3564,21 @@
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>788</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>14950</v>
       </c>
       <c r="H4" s="4">
-        <v>0</v>
+        <v>16720</v>
       </c>
       <c r="I4" s="4">
         <f>+C4+E5+F5+G4+H4+D5</f>
-        <v>0</v>
+        <v>384990</v>
       </c>
       <c r="J4" s="3">
         <f>+I4/F2</f>
-        <v>0</v>
+        <v>874.977272727273</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -3567,7 +3594,7 @@
       </c>
       <c r="F5" s="4">
         <f>+F4*F2</f>
-        <v>0</v>
+        <v>346720</v>
       </c>
       <c r="G5" s="18"/>
       <c r="I5" s="18"/>
@@ -3584,7 +3611,7 @@
       </c>
       <c r="C8" s="2">
         <f>+I4</f>
-        <v>0</v>
+        <v>384990</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -3599,7 +3626,7 @@
       </c>
       <c r="C10" s="4">
         <f>+C42</f>
-        <v>0</v>
+        <v>11699.8</v>
       </c>
       <c r="D10" s="21"/>
     </row>
@@ -3694,7 +3721,7 @@
       </c>
       <c r="C24" s="2">
         <f>SUM(C10:C23)</f>
-        <v>0</v>
+        <v>11699.8</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -3707,7 +3734,9 @@
       <c r="B28" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="3" t="s">
@@ -3719,7 +3748,9 @@
       <c r="B30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
@@ -3761,7 +3792,7 @@
       </c>
       <c r="C37" s="4">
         <f>+I4*0.02</f>
-        <v>0</v>
+        <v>7699.8</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -3786,7 +3817,7 @@
       </c>
       <c r="C42" s="2">
         <f>SUM(C28:C41)</f>
-        <v>0</v>
+        <v>11699.8</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -3811,7 +3842,7 @@
   <dimension ref="B1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD47"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -3820,12 +3851,12 @@
     <col min="3" max="3" width="21.3359375" customWidth="1"/>
     <col min="4" max="4" width="19.890625" customWidth="1"/>
     <col min="5" max="7" width="17.3359375" customWidth="1"/>
-    <col min="8" max="8" width="16.3359375" customWidth="1"/>
+    <col min="8" max="8" width="34.9375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="4:6">
@@ -3836,7 +3867,7 @@
         <v>440</v>
       </c>
       <c r="F2">
-        <v>460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -3856,7 +3887,7 @@
         <v>36</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="H3" s="28" t="s">
         <v>85</v>
@@ -3877,24 +3908,24 @@
         <v>0</v>
       </c>
       <c r="E4" s="4">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>957</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
       </c>
       <c r="I4" s="4">
         <f>+C4+E5+F5+G4+H4+D5</f>
-        <v>0</v>
+        <v>500680</v>
       </c>
       <c r="J4" s="3">
         <f>+I4/F2</f>
-        <v>0</v>
+        <v>1137.90909090909</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -3906,11 +3937,11 @@
       </c>
       <c r="E5" s="4">
         <f>+E4*E2</f>
-        <v>0</v>
+        <v>72600</v>
       </c>
       <c r="F5" s="4">
         <f>+F4*F2</f>
-        <v>0</v>
+        <v>421080</v>
       </c>
       <c r="G5" s="18"/>
       <c r="I5" s="18"/>
@@ -3927,7 +3958,7 @@
       </c>
       <c r="C8" s="2">
         <f>+I4</f>
-        <v>0</v>
+        <v>500680</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -3942,7 +3973,7 @@
       </c>
       <c r="C10" s="4">
         <f>+C42</f>
-        <v>0</v>
+        <v>14013.6</v>
       </c>
       <c r="D10" s="21"/>
     </row>
@@ -4037,7 +4068,7 @@
       </c>
       <c r="C24" s="2">
         <f>SUM(C10:C23)</f>
-        <v>0</v>
+        <v>14013.6</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -4050,7 +4081,9 @@
       <c r="B28" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="3" t="s">
@@ -4062,7 +4095,9 @@
       <c r="B30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
@@ -4104,7 +4139,7 @@
       </c>
       <c r="C37" s="4">
         <f>+I4*0.02</f>
-        <v>0</v>
+        <v>10013.6</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -4129,7 +4164,7 @@
       </c>
       <c r="C42" s="2">
         <f>SUM(C28:C41)</f>
-        <v>0</v>
+        <v>14013.6</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -4153,8 +4188,8 @@
   <sheetPr/>
   <dimension ref="B1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD47"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -4163,12 +4198,12 @@
     <col min="3" max="3" width="21.3359375" customWidth="1"/>
     <col min="4" max="4" width="19.890625" customWidth="1"/>
     <col min="5" max="7" width="17.3359375" customWidth="1"/>
-    <col min="8" max="8" width="16.3359375" customWidth="1"/>
+    <col min="8" max="8" width="34.9375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="4:6">
@@ -4179,7 +4214,7 @@
         <v>440</v>
       </c>
       <c r="F2">
-        <v>460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -4214,7 +4249,7 @@
     <row r="4" spans="2:10">
       <c r="B4" s="15"/>
       <c r="C4" s="16">
-        <v>0</v>
+        <v>7920</v>
       </c>
       <c r="D4" s="16">
         <v>0</v>
@@ -4223,21 +4258,21 @@
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>17600</v>
       </c>
       <c r="H4" s="4">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="I4" s="4">
         <f>+C4+E5+F5+G4+H4+D5</f>
-        <v>0</v>
+        <v>251680</v>
       </c>
       <c r="J4" s="3">
         <f>+I4/F2</f>
-        <v>0</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -4253,7 +4288,7 @@
       </c>
       <c r="F5" s="4">
         <f>+F4*F2</f>
-        <v>0</v>
+        <v>215160</v>
       </c>
       <c r="G5" s="18"/>
       <c r="I5" s="18"/>
@@ -4270,7 +4305,7 @@
       </c>
       <c r="C8" s="2">
         <f>+I4</f>
-        <v>0</v>
+        <v>251680</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -4285,7 +4320,7 @@
       </c>
       <c r="C10" s="4">
         <f>+C42</f>
-        <v>0</v>
+        <v>9033.6</v>
       </c>
       <c r="D10" s="21"/>
     </row>
@@ -4380,7 +4415,7 @@
       </c>
       <c r="C24" s="2">
         <f>SUM(C10:C23)</f>
-        <v>0</v>
+        <v>9033.6</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -4393,7 +4428,9 @@
       <c r="B28" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="3" t="s">
@@ -4405,7 +4442,9 @@
       <c r="B30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
@@ -4447,7 +4486,7 @@
       </c>
       <c r="C37" s="4">
         <f>+I4*0.02</f>
-        <v>0</v>
+        <v>5033.6</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -4472,7 +4511,7 @@
       </c>
       <c r="C42" s="2">
         <f>SUM(C28:C41)</f>
-        <v>0</v>
+        <v>9033.6</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -4496,8 +4535,8 @@
   <sheetPr/>
   <dimension ref="B1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD47"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -4511,7 +4550,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="4:6">
@@ -4522,7 +4561,7 @@
         <v>440</v>
       </c>
       <c r="F2">
-        <v>460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -4566,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>471.4</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
@@ -4576,11 +4615,11 @@
       </c>
       <c r="I4" s="4">
         <f>+C4+E5+F5+G4+H4+D5</f>
-        <v>0</v>
+        <v>207416</v>
       </c>
       <c r="J4" s="3">
         <f>+I4/F2</f>
-        <v>0</v>
+        <v>471.4</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -4596,7 +4635,7 @@
       </c>
       <c r="F5" s="4">
         <f>+F4*F2</f>
-        <v>0</v>
+        <v>207416</v>
       </c>
       <c r="G5" s="18"/>
       <c r="I5" s="18"/>
@@ -4613,7 +4652,7 @@
       </c>
       <c r="C8" s="2">
         <f>+I4</f>
-        <v>0</v>
+        <v>207416</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -4628,7 +4667,7 @@
       </c>
       <c r="C10" s="4">
         <f>+C42</f>
-        <v>0</v>
+        <v>20908.32</v>
       </c>
       <c r="D10" s="21"/>
     </row>
@@ -4723,7 +4762,7 @@
       </c>
       <c r="C24" s="2">
         <f>SUM(C10:C23)</f>
-        <v>0</v>
+        <v>20908.32</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -4742,7 +4781,9 @@
       <c r="B29" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
@@ -4754,7 +4795,9 @@
       <c r="B31" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="3" t="s">
@@ -4762,11 +4805,17 @@
       </c>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:4">
       <c r="B33" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="4"/>
+      <c r="C33" s="4">
+        <f>D33*F2</f>
+        <v>8800</v>
+      </c>
+      <c r="D33">
+        <v>20</v>
+      </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="3" t="s">
@@ -4780,9 +4829,17 @@
       </c>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
+    <row r="36" spans="2:4">
+      <c r="B36" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="4">
+        <f>D36*F2</f>
+        <v>3960</v>
+      </c>
+      <c r="D36">
+        <v>9</v>
+      </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="23">
@@ -4790,7 +4847,7 @@
       </c>
       <c r="C37" s="4">
         <f>+I4*0.02</f>
-        <v>0</v>
+        <v>4148.32</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -4815,7 +4872,7 @@
       </c>
       <c r="C42" s="2">
         <f>SUM(C28:C41)</f>
-        <v>0</v>
+        <v>20908.32</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -4839,8 +4896,8 @@
   <sheetPr/>
   <dimension ref="B1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD47"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -4849,12 +4906,12 @@
     <col min="3" max="3" width="21.3359375" customWidth="1"/>
     <col min="4" max="4" width="19.890625" customWidth="1"/>
     <col min="5" max="7" width="17.3359375" customWidth="1"/>
-    <col min="8" max="8" width="16.3359375" customWidth="1"/>
+    <col min="8" max="8" width="34.9375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="4:6">
@@ -4865,7 +4922,7 @@
         <v>440</v>
       </c>
       <c r="F2">
-        <v>460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -4885,7 +4942,7 @@
         <v>36</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="H3" s="28" t="s">
         <v>85</v>
@@ -4909,21 +4966,21 @@
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
       </c>
       <c r="I4" s="4">
         <f>+C4+E5+F5+G4+H4+D5</f>
-        <v>0</v>
+        <v>243760</v>
       </c>
       <c r="J4" s="3">
         <f>+I4/F2</f>
-        <v>0</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -4939,7 +4996,7 @@
       </c>
       <c r="F5" s="4">
         <f>+F4*F2</f>
-        <v>0</v>
+        <v>221760</v>
       </c>
       <c r="G5" s="18"/>
       <c r="I5" s="18"/>
@@ -4956,7 +5013,7 @@
       </c>
       <c r="C8" s="2">
         <f>+I4</f>
-        <v>0</v>
+        <v>243760</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -4971,7 +5028,7 @@
       </c>
       <c r="C10" s="4">
         <f>+C42</f>
-        <v>0</v>
+        <v>8875.2</v>
       </c>
       <c r="D10" s="21"/>
     </row>
@@ -5066,7 +5123,7 @@
       </c>
       <c r="C24" s="2">
         <f>SUM(C10:C23)</f>
-        <v>0</v>
+        <v>8875.2</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -5085,7 +5142,9 @@
       <c r="B29" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
@@ -5097,7 +5156,9 @@
       <c r="B31" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="3" t="s">
@@ -5133,7 +5194,7 @@
       </c>
       <c r="C37" s="4">
         <f>+I4*0.02</f>
-        <v>0</v>
+        <v>4875.2</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -5158,7 +5219,7 @@
       </c>
       <c r="C42" s="2">
         <f>SUM(C28:C41)</f>
-        <v>0</v>
+        <v>8875.2</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -5197,15 +5258,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="32" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -5223,7 +5284,7 @@
       <c r="H3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="37" t="s">
         <v>38</v>
       </c>
       <c r="J3" s="14" t="s">
@@ -5237,32 +5298,32 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="4">
         <f>+'Dia 1'!C4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="36">
         <f>+'Dia 1'!D4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="36">
         <f>+'Dia 1'!E4</f>
         <v>0</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="36">
         <f>+'Dia 1'!F4</f>
         <v>382</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4" s="36">
         <f>+'Dia 1'!G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="36">
         <f>+'Dia 1'!H4</f>
         <v>0</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="36">
         <f>+'Dia 1'!I4</f>
         <v>171900</v>
       </c>
@@ -5275,7 +5336,7 @@
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="33"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="4">
         <f>+'Dia 2'!C4</f>
         <v>0</v>
@@ -5313,7 +5374,7 @@
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="4">
         <f>+'Dia 3'!C4</f>
         <v>0</v>
@@ -5351,7 +5412,7 @@
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="4">
         <f>+'Dia 4'!C4</f>
         <v>0</v>
@@ -5389,7 +5450,7 @@
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="34"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="4">
         <f>+'Dia 5'!C4</f>
         <v>0</v>
@@ -5404,19 +5465,19 @@
       </c>
       <c r="G8" s="4">
         <f>+'Dia 5'!F4</f>
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="H8" s="4">
         <f>+'Dia 5'!G4</f>
-        <v>0</v>
+        <v>33250</v>
       </c>
       <c r="I8" s="4">
         <f>+'Dia 5'!H4</f>
-        <v>0</v>
+        <v>8740</v>
       </c>
       <c r="J8" s="4">
         <f>+'Dia 5'!I4</f>
-        <v>0</v>
+        <v>221540</v>
       </c>
       <c r="K8" s="4">
         <f>+'Dia 1'!J8</f>
@@ -5427,10 +5488,10 @@
       <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="34"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="4">
         <f>+'Dia 6'!C4</f>
-        <v>0</v>
+        <v>22500</v>
       </c>
       <c r="E9" s="4">
         <f>+'Dia 6'!D4</f>
@@ -5442,19 +5503,19 @@
       </c>
       <c r="G9" s="4">
         <f>+'Dia 6'!F4</f>
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="H9" s="4">
         <f>+'Dia 6'!G4</f>
-        <v>0</v>
+        <v>49800</v>
       </c>
       <c r="I9" s="4">
         <f>+'Dia 6'!H4</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J9" s="4">
         <f>+'Dia 6'!I4</f>
-        <v>0</v>
+        <v>271750</v>
       </c>
       <c r="K9" s="4">
         <f>+'Dia 1'!J9</f>
@@ -5465,7 +5526,7 @@
       <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="4">
         <f>+'Dia 7'!C4</f>
         <v>0</v>
@@ -5480,11 +5541,11 @@
       </c>
       <c r="G10" s="4">
         <f>+'Dia 7'!F4</f>
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="H10" s="4">
         <f>+'Dia 7'!G4</f>
-        <v>0</v>
+        <v>50730</v>
       </c>
       <c r="I10" s="4">
         <f>+'Dia 7'!H4</f>
@@ -5492,7 +5553,7 @@
       </c>
       <c r="J10" s="4">
         <f>+'Dia 7'!I4</f>
-        <v>0</v>
+        <v>110360</v>
       </c>
       <c r="K10" s="4">
         <f>+'Dia 1'!J10</f>
@@ -5503,7 +5564,7 @@
       <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="34"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="4">
         <f>+'Dia 8'!C4</f>
         <v>0</v>
@@ -5518,11 +5579,11 @@
       </c>
       <c r="G11" s="4">
         <f>+'Dia 8'!F4</f>
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="H11" s="4">
         <f>+'Dia 8'!G4</f>
-        <v>0</v>
+        <v>37505</v>
       </c>
       <c r="I11" s="4">
         <f>+'Dia 8'!H4</f>
@@ -5530,7 +5591,7 @@
       </c>
       <c r="J11" s="4">
         <f>+'Dia 8'!I4</f>
-        <v>0</v>
+        <v>235530</v>
       </c>
       <c r="K11" s="4">
         <f>+'Dia 1'!J11</f>
@@ -5541,7 +5602,7 @@
       <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="4">
         <f>+'Dia 9'!C4</f>
         <v>0</v>
@@ -5556,11 +5617,11 @@
       </c>
       <c r="G12" s="4">
         <f>+'Dia 9'!F4</f>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="H12" s="4">
         <f>+'Dia 9'!G4</f>
-        <v>0</v>
+        <v>37825</v>
       </c>
       <c r="I12" s="4">
         <f>+'Dia 9'!H4</f>
@@ -5568,7 +5629,7 @@
       </c>
       <c r="J12" s="4">
         <f>+'Dia 9'!I4</f>
-        <v>0</v>
+        <v>87665</v>
       </c>
       <c r="K12" s="4">
         <f>+'Dia 1'!J12</f>
@@ -5579,7 +5640,7 @@
       <c r="B13" s="1">
         <v>10</v>
       </c>
-      <c r="C13" s="34"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="4">
         <f>+'Dia 10'!C4</f>
         <v>0</v>
@@ -5594,11 +5655,11 @@
       </c>
       <c r="G13" s="4">
         <f>+'Dia 10'!F4</f>
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="H13" s="4">
         <f>+'Dia 10'!G4</f>
-        <v>0</v>
+        <v>32550</v>
       </c>
       <c r="I13" s="4">
         <f>+'Dia 10'!H4</f>
@@ -5606,7 +5667,7 @@
       </c>
       <c r="J13" s="4">
         <f>+'Dia 10'!I4</f>
-        <v>0</v>
+        <v>154925</v>
       </c>
       <c r="K13" s="4">
         <f>+'Dia 1'!J13</f>
@@ -5617,7 +5678,7 @@
       <c r="B14" s="1">
         <v>11</v>
       </c>
-      <c r="C14" s="34"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="4">
         <f>+'Dia 11'!C4</f>
         <v>0</v>
@@ -5632,19 +5693,19 @@
       </c>
       <c r="G14" s="4">
         <f>+'Dia 11'!F4</f>
-        <v>0</v>
+        <v>901</v>
       </c>
       <c r="H14" s="4">
         <f>+'Dia 11'!G4</f>
-        <v>0</v>
+        <v>61275</v>
       </c>
       <c r="I14" s="4">
         <f>+'Dia 11'!H4</f>
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="J14" s="4">
         <f>+'Dia 11'!I4</f>
-        <v>0</v>
+        <v>477225</v>
       </c>
       <c r="K14" s="4">
         <f>+'Dia 1'!J14</f>
@@ -5655,10 +5716,10 @@
       <c r="B15" s="1">
         <v>12</v>
       </c>
-      <c r="C15" s="34"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="4">
         <f>+'Dia 12'!C4</f>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="E15" s="4">
         <f>+'Dia 12'!D4</f>
@@ -5670,19 +5731,19 @@
       </c>
       <c r="G15" s="4">
         <f>+'Dia 12'!F4</f>
-        <v>0</v>
+        <v>788</v>
       </c>
       <c r="H15" s="4">
         <f>+'Dia 12'!G4</f>
-        <v>0</v>
+        <v>14950</v>
       </c>
       <c r="I15" s="4">
         <f>+'Dia 12'!H4</f>
-        <v>0</v>
+        <v>16720</v>
       </c>
       <c r="J15" s="4">
         <f>+'Dia 12'!I4</f>
-        <v>0</v>
+        <v>384990</v>
       </c>
       <c r="K15" s="4">
         <f>+'Dia 1'!J15</f>
@@ -5693,7 +5754,7 @@
       <c r="B16" s="1">
         <v>13</v>
       </c>
-      <c r="C16" s="34"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="4">
         <f>+'Dia 13'!C4</f>
         <v>0</v>
@@ -5704,15 +5765,15 @@
       </c>
       <c r="F16" s="4">
         <f>+'Dia 13'!E4</f>
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="G16" s="4">
         <f>+'Dia 13'!F4</f>
-        <v>0</v>
+        <v>957</v>
       </c>
       <c r="H16" s="4">
         <f>+'Dia 13'!G4</f>
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="I16" s="4">
         <f>+'Dia 13'!H4</f>
@@ -5720,7 +5781,7 @@
       </c>
       <c r="J16" s="4">
         <f>+'Dia 13'!I4</f>
-        <v>0</v>
+        <v>500680</v>
       </c>
       <c r="K16" s="4">
         <f>+'Dia 1'!J15</f>
@@ -5731,10 +5792,10 @@
       <c r="B17" s="1">
         <v>14</v>
       </c>
-      <c r="C17" s="34"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="4">
         <f>+'Dia 14'!C4</f>
-        <v>0</v>
+        <v>7920</v>
       </c>
       <c r="E17" s="4">
         <f>+'Dia 14'!D4</f>
@@ -5746,19 +5807,19 @@
       </c>
       <c r="G17" s="4">
         <f>+'Dia 14'!F4</f>
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="H17" s="4">
         <f>+'Dia 14'!G4</f>
-        <v>0</v>
+        <v>17600</v>
       </c>
       <c r="I17" s="4">
         <f>+'Dia 14'!H4</f>
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="J17" s="4">
         <f>+'Dia 14'!I4</f>
-        <v>0</v>
+        <v>251680</v>
       </c>
       <c r="K17" s="4">
         <f>+'Dia 1'!J16</f>
@@ -5769,7 +5830,7 @@
       <c r="B18" s="1">
         <v>15</v>
       </c>
-      <c r="C18" s="34"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="4">
         <f>+'Dia 15'!C4</f>
         <v>0</v>
@@ -5784,7 +5845,7 @@
       </c>
       <c r="G18" s="4">
         <f>+'Dia 15'!F4</f>
-        <v>0</v>
+        <v>471.4</v>
       </c>
       <c r="H18" s="4">
         <f>+'Dia 15'!G4</f>
@@ -5796,7 +5857,7 @@
       </c>
       <c r="J18" s="4">
         <f>+'Dia 15'!I4</f>
-        <v>0</v>
+        <v>207416</v>
       </c>
       <c r="K18" s="4">
         <f>+'Dia 1'!J17</f>
@@ -5807,7 +5868,7 @@
       <c r="B19" s="1">
         <v>16</v>
       </c>
-      <c r="C19" s="34"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="4">
         <f>+'Dia 16'!C4</f>
         <v>0</v>
@@ -5822,11 +5883,11 @@
       </c>
       <c r="G19" s="4">
         <f>+'Dia 16'!F4</f>
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="H19" s="4">
         <f>+'Dia 16'!G4</f>
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="I19" s="4">
         <f>+'Dia 16'!H4</f>
@@ -5834,7 +5895,7 @@
       </c>
       <c r="J19" s="4">
         <f>+'Dia 16'!I4</f>
-        <v>0</v>
+        <v>243760</v>
       </c>
       <c r="K19" s="4">
         <f>+'Dia 1'!J18</f>
@@ -5845,10 +5906,10 @@
       <c r="B20" s="1">
         <v>17</v>
       </c>
-      <c r="C20" s="34"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="4">
         <f>+'Dia 17'!C4</f>
-        <v>0</v>
+        <v>39920</v>
       </c>
       <c r="E20" s="4">
         <f>+'Dia 17'!D4</f>
@@ -5860,11 +5921,11 @@
       </c>
       <c r="G20" s="4">
         <f>+'Dia 17'!F4</f>
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="H20" s="4">
         <f>+'Dia 17'!G4</f>
-        <v>0</v>
+        <v>154120</v>
       </c>
       <c r="I20" s="4">
         <f>+'Dia 17'!H4</f>
@@ -5872,7 +5933,7 @@
       </c>
       <c r="J20" s="4">
         <f>+'Dia 17'!I4</f>
-        <v>0</v>
+        <v>389840</v>
       </c>
       <c r="K20" s="4">
         <f>+'Dia 1'!J19</f>
@@ -5883,7 +5944,7 @@
       <c r="B21" s="1">
         <v>18</v>
       </c>
-      <c r="C21" s="34"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="4">
         <f>+'Dia 18'!C4</f>
         <v>0</v>
@@ -5894,11 +5955,11 @@
       </c>
       <c r="F21" s="4">
         <f>+'Dia 18'!E4</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G21" s="4">
         <f>+'Dia 18'!F4</f>
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="H21" s="4">
         <f>+'Dia 18'!G4</f>
@@ -5910,7 +5971,7 @@
       </c>
       <c r="J21" s="4">
         <f>+'Dia 18'!I4</f>
-        <v>0</v>
+        <v>116080</v>
       </c>
       <c r="K21" s="4">
         <f>+'Dia 1'!J20</f>
@@ -5921,7 +5982,7 @@
       <c r="B22" s="1">
         <v>19</v>
       </c>
-      <c r="C22" s="34"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="4">
         <f>+'Dia 19'!C4</f>
         <v>0</v>
@@ -5959,7 +6020,7 @@
       <c r="B23" s="1">
         <v>20</v>
       </c>
-      <c r="C23" s="34"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="4">
         <f>+'Dia 20'!C4</f>
         <v>0</v>
@@ -5974,11 +6035,11 @@
       </c>
       <c r="G23" s="4">
         <f>+'Dia 20'!F4</f>
-        <v>0</v>
+        <v>772</v>
       </c>
       <c r="H23" s="4">
         <f>+'Dia 20'!G4</f>
-        <v>0</v>
+        <v>30450</v>
       </c>
       <c r="I23" s="4">
         <f>+'Dia 20'!H4</f>
@@ -5986,7 +6047,7 @@
       </c>
       <c r="J23" s="4">
         <f>+'Dia 20'!I4</f>
-        <v>0</v>
+        <v>370130</v>
       </c>
       <c r="K23" s="4">
         <f>+'Dia 1'!J23</f>
@@ -5997,7 +6058,7 @@
       <c r="B24" s="1">
         <v>21</v>
       </c>
-      <c r="C24" s="34"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="4">
         <f>+'Dia 21'!C4</f>
         <v>0</v>
@@ -6012,11 +6073,11 @@
       </c>
       <c r="G24" s="4">
         <f>+'Dia 21'!F4</f>
-        <v>0</v>
+        <v>412</v>
       </c>
       <c r="H24" s="4">
         <f>+'Dia 21'!G4</f>
-        <v>0</v>
+        <v>46450</v>
       </c>
       <c r="I24" s="4">
         <f>+'Dia 21'!H4</f>
@@ -6024,7 +6085,7 @@
       </c>
       <c r="J24" s="4">
         <f>+'Dia 21'!I4</f>
-        <v>0</v>
+        <v>227730</v>
       </c>
       <c r="K24" s="4">
         <f>+'Dia 1'!J24</f>
@@ -6035,7 +6096,7 @@
       <c r="B25" s="1">
         <v>22</v>
       </c>
-      <c r="C25" s="34"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="4">
         <f>+'Dia 22'!C4</f>
         <v>0</v>
@@ -6050,11 +6111,11 @@
       </c>
       <c r="G25" s="4">
         <f>+'Dia 22'!F4</f>
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="H25" s="4">
         <f>+'Dia 22'!G4</f>
-        <v>0</v>
+        <v>60940</v>
       </c>
       <c r="I25" s="4">
         <f>+'Dia 22'!H4</f>
@@ -6062,7 +6123,7 @@
       </c>
       <c r="J25" s="4">
         <f>+'Dia 22'!I4</f>
-        <v>0</v>
+        <v>158620</v>
       </c>
       <c r="K25" s="4">
         <f>+'Dia 1'!J25</f>
@@ -6073,7 +6134,7 @@
       <c r="B26" s="1">
         <v>23</v>
       </c>
-      <c r="C26" s="34"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="4">
         <f>+'Dia 23'!C4</f>
         <v>0</v>
@@ -6418,7 +6479,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="2">
         <f>+SUM(D4:D34)</f>
-        <v>0</v>
+        <v>76940</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" ref="E35:K35" si="0">+SUM(E4:E34)</f>
@@ -6426,23 +6487,23 @@
       </c>
       <c r="F35" s="2">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>265</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" si="0"/>
-        <v>989.48</v>
+        <v>8960.88</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" si="0"/>
-        <v>46200</v>
+        <v>702645</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" si="0"/>
-        <v>7800</v>
+        <v>64760</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>521266</v>
+        <v>4931187</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="0"/>
@@ -6455,7 +6516,7 @@
       </c>
       <c r="D37" s="4">
         <f>+D35/31</f>
-        <v>0</v>
+        <v>2481.93548387097</v>
       </c>
       <c r="E37" s="4">
         <f t="shared" ref="E37:K37" si="1">+E35/31</f>
@@ -6463,23 +6524,23 @@
       </c>
       <c r="F37" s="4">
         <f t="shared" si="1"/>
-        <v>1.61290322580645</v>
+        <v>8.54838709677419</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" si="1"/>
-        <v>31.9187096774194</v>
+        <v>289.06064516129</v>
       </c>
       <c r="H37" s="4">
         <f t="shared" si="1"/>
-        <v>1490.32258064516</v>
+        <v>22665.9677419355</v>
       </c>
       <c r="I37" s="4">
         <f t="shared" si="1"/>
-        <v>251.612903225806</v>
+        <v>2089.03225806452</v>
       </c>
       <c r="J37" s="4">
         <f t="shared" si="1"/>
-        <v>16815.0322580645</v>
+        <v>159070.548387097</v>
       </c>
       <c r="K37" s="4">
         <f t="shared" si="1"/>
@@ -6502,7 +6563,7 @@
       <c r="H38" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I38" s="36" t="s">
+      <c r="I38" s="37" t="s">
         <v>38</v>
       </c>
       <c r="J38" s="14" t="s">
@@ -6524,8 +6585,8 @@
   <sheetPr/>
   <dimension ref="B1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD47"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -6539,7 +6600,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="4:6">
@@ -6550,7 +6611,7 @@
         <v>440</v>
       </c>
       <c r="F2">
-        <v>460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -6585,7 +6646,7 @@
     <row r="4" spans="2:10">
       <c r="B4" s="15"/>
       <c r="C4" s="16">
-        <v>0</v>
+        <v>39920</v>
       </c>
       <c r="D4" s="16">
         <v>0</v>
@@ -6594,21 +6655,21 @@
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>154120</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
       </c>
       <c r="I4" s="4">
         <f>+C4+E5+F5+G4+H4+D5</f>
-        <v>0</v>
+        <v>389840</v>
       </c>
       <c r="J4" s="3">
         <f>+I4/F2</f>
-        <v>0</v>
+        <v>886</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -6624,7 +6685,7 @@
       </c>
       <c r="F5" s="4">
         <f>+F4*F2</f>
-        <v>0</v>
+        <v>195800</v>
       </c>
       <c r="G5" s="18"/>
       <c r="I5" s="18"/>
@@ -6641,7 +6702,7 @@
       </c>
       <c r="C8" s="2">
         <f>+I4</f>
-        <v>0</v>
+        <v>389840</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -6656,7 +6717,7 @@
       </c>
       <c r="C10" s="4">
         <f>+C42</f>
-        <v>0</v>
+        <v>11796.8</v>
       </c>
       <c r="D10" s="21"/>
     </row>
@@ -6751,7 +6812,7 @@
       </c>
       <c r="C24" s="2">
         <f>SUM(C10:C23)</f>
-        <v>0</v>
+        <v>11796.8</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -6770,7 +6831,9 @@
       <c r="B29" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
@@ -6782,7 +6845,9 @@
       <c r="B31" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="3" t="s">
@@ -6818,7 +6883,7 @@
       </c>
       <c r="C37" s="4">
         <f>+I4*0.02</f>
-        <v>0</v>
+        <v>7796.8</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -6843,7 +6908,7 @@
       </c>
       <c r="C42" s="2">
         <f>SUM(C28:C41)</f>
-        <v>0</v>
+        <v>11796.8</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -6867,8 +6932,8 @@
   <sheetPr/>
   <dimension ref="B1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD47"/>
+    <sheetView zoomScale="73" zoomScaleNormal="73" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -6877,12 +6942,12 @@
     <col min="3" max="3" width="21.3359375" customWidth="1"/>
     <col min="4" max="4" width="19.890625" customWidth="1"/>
     <col min="5" max="7" width="17.3359375" customWidth="1"/>
-    <col min="8" max="8" width="16.3359375" customWidth="1"/>
+    <col min="8" max="8" width="34.9375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="4:6">
@@ -6893,7 +6958,7 @@
         <v>440</v>
       </c>
       <c r="F2">
-        <v>460</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -6934,10 +6999,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
@@ -6947,11 +7012,11 @@
       </c>
       <c r="I4" s="4">
         <f>+C4+E5+F5+G4+H4+D5</f>
-        <v>0</v>
+        <v>116080</v>
       </c>
       <c r="J4" s="3">
         <f>+I4/F2</f>
-        <v>0</v>
+        <v>276.380952380952</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -6963,11 +7028,11 @@
       </c>
       <c r="E5" s="4">
         <f>+E4*E2</f>
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="F5" s="4">
         <f>+F4*F2</f>
-        <v>0</v>
+        <v>94080</v>
       </c>
       <c r="G5" s="18"/>
       <c r="I5" s="18"/>
@@ -6984,7 +7049,7 @@
       </c>
       <c r="C8" s="2">
         <f>+I4</f>
-        <v>0</v>
+        <v>116080</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -6999,7 +7064,7 @@
       </c>
       <c r="C10" s="4">
         <f>+C42</f>
-        <v>0</v>
+        <v>56721.6</v>
       </c>
       <c r="D10" s="21"/>
     </row>
@@ -7094,7 +7159,7 @@
       </c>
       <c r="C24" s="2">
         <f>SUM(C10:C23)</f>
-        <v>0</v>
+        <v>56721.6</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -7107,7 +7172,9 @@
       <c r="B28" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="3" t="s">
@@ -7131,13 +7198,21 @@
       <c r="B32" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="2:3">
+      <c r="C32" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
       <c r="B33" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="4"/>
+      <c r="C33" s="4">
+        <f>D33*F2</f>
+        <v>8400</v>
+      </c>
+      <c r="D33">
+        <v>20</v>
+      </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="3" t="s">
@@ -7151,9 +7226,17 @@
       </c>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
+    <row r="36" spans="2:4">
+      <c r="B36" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="4">
+        <f>D36*F2</f>
+        <v>42000</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="23">
@@ -7161,7 +7244,7 @@
       </c>
       <c r="C37" s="4">
         <f>+I4*0.02</f>
-        <v>0</v>
+        <v>2321.6</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -7186,7 +7269,7 @@
       </c>
       <c r="C42" s="2">
         <f>SUM(C28:C41)</f>
-        <v>0</v>
+        <v>56721.6</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -7225,7 +7308,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="4:6">
@@ -7553,8 +7636,8 @@
   <sheetPr/>
   <dimension ref="B1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD47"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -7563,12 +7646,12 @@
     <col min="3" max="3" width="21.3359375" customWidth="1"/>
     <col min="4" max="4" width="19.890625" customWidth="1"/>
     <col min="5" max="7" width="17.3359375" customWidth="1"/>
-    <col min="8" max="8" width="16.3359375" customWidth="1"/>
+    <col min="8" max="8" width="34.9375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="4:6">
@@ -7579,7 +7662,7 @@
         <v>440</v>
       </c>
       <c r="F2">
-        <v>460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -7623,21 +7706,21 @@
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>772</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>30450</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
       </c>
       <c r="I4" s="4">
         <f>+C4+E5+F5+G4+H4+D5</f>
-        <v>0</v>
+        <v>370130</v>
       </c>
       <c r="J4" s="3">
         <f>+I4/F2</f>
-        <v>0</v>
+        <v>841.204545454545</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -7653,7 +7736,7 @@
       </c>
       <c r="F5" s="4">
         <f>+F4*F2</f>
-        <v>0</v>
+        <v>339680</v>
       </c>
       <c r="G5" s="18"/>
       <c r="I5" s="18"/>
@@ -7670,7 +7753,7 @@
       </c>
       <c r="C8" s="2">
         <f>+I4</f>
-        <v>0</v>
+        <v>370130</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -7685,7 +7768,7 @@
       </c>
       <c r="C10" s="4">
         <f>+C42</f>
-        <v>0</v>
+        <v>11402.6</v>
       </c>
       <c r="D10" s="21"/>
     </row>
@@ -7780,7 +7863,7 @@
       </c>
       <c r="C24" s="2">
         <f>SUM(C10:C23)</f>
-        <v>0</v>
+        <v>11402.6</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -7793,7 +7876,9 @@
       <c r="B28" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="3" t="s">
@@ -7817,7 +7902,9 @@
       <c r="B32" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="3" t="s">
@@ -7847,7 +7934,7 @@
       </c>
       <c r="C37" s="4">
         <f>+I4*0.02</f>
-        <v>0</v>
+        <v>7402.6</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -7872,7 +7959,7 @@
       </c>
       <c r="C42" s="2">
         <f>SUM(C28:C41)</f>
-        <v>0</v>
+        <v>11402.6</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -7896,8 +7983,8 @@
   <sheetPr/>
   <dimension ref="B1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD47"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -7906,12 +7993,12 @@
     <col min="3" max="3" width="21.3359375" customWidth="1"/>
     <col min="4" max="4" width="19.890625" customWidth="1"/>
     <col min="5" max="7" width="17.3359375" customWidth="1"/>
-    <col min="8" max="8" width="16.3359375" customWidth="1"/>
+    <col min="8" max="8" width="34.9375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="4:6">
@@ -7922,7 +8009,7 @@
         <v>440</v>
       </c>
       <c r="F2">
-        <v>460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -7966,21 +8053,21 @@
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>412</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>46450</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
       </c>
       <c r="I4" s="4">
         <f>+C4+E5+F5+G4+H4+D5</f>
-        <v>0</v>
+        <v>227730</v>
       </c>
       <c r="J4" s="3">
         <f>+I4/F2</f>
-        <v>0</v>
+        <v>517.568181818182</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -7996,7 +8083,7 @@
       </c>
       <c r="F5" s="4">
         <f>+F4*F2</f>
-        <v>0</v>
+        <v>181280</v>
       </c>
       <c r="G5" s="18"/>
       <c r="I5" s="18"/>
@@ -8013,7 +8100,7 @@
       </c>
       <c r="C8" s="2">
         <f>+I4</f>
-        <v>0</v>
+        <v>227730</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -8028,7 +8115,7 @@
       </c>
       <c r="C10" s="4">
         <f>+C42</f>
-        <v>0</v>
+        <v>4554.6</v>
       </c>
       <c r="D10" s="21"/>
     </row>
@@ -8123,7 +8210,7 @@
       </c>
       <c r="C24" s="2">
         <f>SUM(C10:C23)</f>
-        <v>0</v>
+        <v>4554.6</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -8190,7 +8277,7 @@
       </c>
       <c r="C37" s="4">
         <f>+I4*0.02</f>
-        <v>0</v>
+        <v>4554.6</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -8215,7 +8302,7 @@
       </c>
       <c r="C42" s="2">
         <f>SUM(C28:C41)</f>
-        <v>0</v>
+        <v>4554.6</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -8239,8 +8326,8 @@
   <sheetPr/>
   <dimension ref="B1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD47"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -8254,7 +8341,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="4:6">
@@ -8265,7 +8352,7 @@
         <v>440</v>
       </c>
       <c r="F2">
-        <v>460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -8309,21 +8396,21 @@
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>60940</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
       </c>
       <c r="I4" s="4">
         <f>+C4+E5+F5+G4+H4+D5</f>
-        <v>0</v>
+        <v>158620</v>
       </c>
       <c r="J4" s="3">
         <f>+I4/F2</f>
-        <v>0</v>
+        <v>360.5</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -8339,7 +8426,7 @@
       </c>
       <c r="F5" s="4">
         <f>+F4*F2</f>
-        <v>0</v>
+        <v>97680</v>
       </c>
       <c r="G5" s="18"/>
       <c r="I5" s="18"/>
@@ -8356,7 +8443,7 @@
       </c>
       <c r="C8" s="2">
         <f>+I4</f>
-        <v>0</v>
+        <v>158620</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -8371,7 +8458,7 @@
       </c>
       <c r="C10" s="4">
         <f>+C42</f>
-        <v>0</v>
+        <v>7172.4</v>
       </c>
       <c r="D10" s="21"/>
     </row>
@@ -8466,7 +8553,7 @@
       </c>
       <c r="C24" s="2">
         <f>SUM(C10:C23)</f>
-        <v>0</v>
+        <v>7172.4</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -8485,7 +8572,9 @@
       <c r="B29" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
@@ -8497,7 +8586,9 @@
       <c r="B31" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="3" t="s">
@@ -8533,7 +8624,7 @@
       </c>
       <c r="C37" s="4">
         <f>+I4*0.02</f>
-        <v>0</v>
+        <v>3172.4</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -8558,7 +8649,7 @@
       </c>
       <c r="C42" s="2">
         <f>SUM(C28:C41)</f>
-        <v>0</v>
+        <v>7172.4</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -8582,8 +8673,8 @@
   <sheetPr/>
   <dimension ref="B1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD47"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -8597,7 +8688,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="4:6">
@@ -8940,7 +9031,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="4:6">
@@ -9283,7 +9374,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="4:6">
@@ -9626,7 +9717,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="4:6">
@@ -10098,796 +10189,796 @@
       <c r="B6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="30">
         <f>+'Dia 1'!C28</f>
         <v>2000</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="30">
         <f>+'Dia 2'!C28</f>
         <v>2000</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="30">
         <f>+'Dia 3'!C28</f>
         <v>0</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="30">
         <f>+'Dia 4'!C28</f>
         <v>0</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="30">
         <f>+'Dia 5'!C28</f>
         <v>0</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="30">
         <f>+'Dia 6'!C28</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="29">
+        <v>2000</v>
+      </c>
+      <c r="I6" s="30">
         <f>+'Dia 7'!C28</f>
         <v>0</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="30">
         <f>+'Dia 8'!C28</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="29">
+        <v>2000</v>
+      </c>
+      <c r="K6" s="30">
         <f>+'Dia 9'!C28</f>
         <v>0</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="30">
         <f>+'Dia 10'!C28</f>
         <v>0</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="30">
         <f>+'Dia 11'!C28</f>
         <v>0</v>
       </c>
-      <c r="N6" s="29">
+      <c r="N6" s="30">
         <f>+'Dia 12'!C28</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="29">
+        <v>2000</v>
+      </c>
+      <c r="O6" s="30">
         <f>+'Dia 13'!C28</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="29">
+        <v>2000</v>
+      </c>
+      <c r="P6" s="30">
         <f>+'Dia 14'!C28</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="29">
+        <v>2000</v>
+      </c>
+      <c r="Q6" s="30">
         <f>+'Dia 15'!C28</f>
         <v>0</v>
       </c>
-      <c r="R6" s="29">
+      <c r="R6" s="30">
         <f>+'Dia 16'!C28</f>
         <v>0</v>
       </c>
-      <c r="S6" s="29">
+      <c r="S6" s="30">
         <f>+'Dia 17'!C28</f>
         <v>0</v>
       </c>
-      <c r="T6" s="29">
+      <c r="T6" s="30">
         <f>+'Dia 18'!C28</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="29">
+        <v>2000</v>
+      </c>
+      <c r="U6" s="30">
         <f>+'Dia 19'!C28</f>
         <v>0</v>
       </c>
-      <c r="V6" s="29">
+      <c r="V6" s="30">
         <f>+'Dia 20'!C28</f>
-        <v>0</v>
-      </c>
-      <c r="W6" s="29">
+        <v>2000</v>
+      </c>
+      <c r="W6" s="30">
         <f>+'Dia 21'!C28</f>
         <v>0</v>
       </c>
-      <c r="X6" s="29">
+      <c r="X6" s="30">
         <f>+'Dia 22'!C28</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="29">
+      <c r="Y6" s="30">
         <f>+'Dia 23'!C28</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="29">
+      <c r="Z6" s="30">
         <f>+'Dia 24'!C28</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="29">
+      <c r="AA6" s="30">
         <f>+'Dia 25'!C28</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="29">
+      <c r="AB6" s="30">
         <f>+'Dia 26'!C28</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="29">
+      <c r="AC6" s="30">
         <f>+'Dia 27'!C28</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="29">
+      <c r="AD6" s="30">
         <f>+'Dia 28'!C28</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="29">
+      <c r="AE6" s="30">
         <f>+'Dia 29'!C28</f>
         <v>0</v>
       </c>
-      <c r="AF6" s="29">
+      <c r="AF6" s="30">
         <f>+'Dia 30'!C28</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="29">
+      <c r="AG6" s="30">
         <f>+'Dia 31'!C28</f>
         <v>0</v>
       </c>
-      <c r="AH6" s="29">
+      <c r="AH6" s="30">
         <f>SUM(C6:AG6)</f>
-        <v>4000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="7" spans="2:34">
       <c r="B7" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="30">
         <f>+'Dia 1'!C29</f>
         <v>0</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="30">
         <f>+'Dia 2'!C29</f>
         <v>0</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="30">
         <f>+'Dia 3'!C29</f>
         <v>2000</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="30">
         <f>+'Dia 4'!C29</f>
         <v>0</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="30">
         <f>+'Dia 5'!C29</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="29">
+        <v>2000</v>
+      </c>
+      <c r="H7" s="30">
         <f>+'Dia 6'!C29</f>
         <v>0</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="30">
         <f>+'Dia 7'!C29</f>
         <v>0</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="30">
         <f>+'Dia 8'!C29</f>
         <v>0</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="30">
         <f>+'Dia 9'!C29</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="29">
+        <v>2000</v>
+      </c>
+      <c r="L7" s="30">
         <f>+'Dia 10'!C29</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="29">
+        <v>2000</v>
+      </c>
+      <c r="M7" s="30">
         <f>+'Dia 11'!C29</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="29">
+        <v>2000</v>
+      </c>
+      <c r="N7" s="30">
         <f>+'Dia 12'!C29</f>
         <v>0</v>
       </c>
-      <c r="O7" s="29">
+      <c r="O7" s="30">
         <f>+'Dia 13'!C29</f>
         <v>0</v>
       </c>
-      <c r="P7" s="29">
+      <c r="P7" s="30">
         <f>+'Dia 14'!C29</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="29">
+      <c r="Q7" s="30">
         <f>+'Dia 15'!C29</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="29">
+        <v>2000</v>
+      </c>
+      <c r="R7" s="30">
         <f>+'Dia 16'!C29</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="29">
+        <v>2000</v>
+      </c>
+      <c r="S7" s="30">
         <f>+'Dia 17'!C29</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="29">
+        <v>2000</v>
+      </c>
+      <c r="T7" s="30">
         <f>+'Dia 18'!C29</f>
         <v>0</v>
       </c>
-      <c r="U7" s="29">
+      <c r="U7" s="30">
         <f>+'Dia 19'!C29</f>
         <v>0</v>
       </c>
-      <c r="V7" s="29">
+      <c r="V7" s="30">
         <f>+'Dia 20'!C29</f>
         <v>0</v>
       </c>
-      <c r="W7" s="29">
+      <c r="W7" s="30">
         <f>+'Dia 21'!C29</f>
         <v>0</v>
       </c>
-      <c r="X7" s="29">
+      <c r="X7" s="30">
         <f>+'Dia 22'!C29</f>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="29">
+        <v>2000</v>
+      </c>
+      <c r="Y7" s="30">
         <f>+'Dia 23'!C29</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="29">
+      <c r="Z7" s="30">
         <f>+'Dia 24'!C29</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="29">
+      <c r="AA7" s="30">
         <f>+'Dia 25'!C29</f>
         <v>0</v>
       </c>
-      <c r="AB7" s="29">
+      <c r="AB7" s="30">
         <f>+'Dia 26'!C29</f>
         <v>0</v>
       </c>
-      <c r="AC7" s="29">
+      <c r="AC7" s="30">
         <f>+'Dia 27'!C29</f>
         <v>0</v>
       </c>
-      <c r="AD7" s="29">
+      <c r="AD7" s="30">
         <f>+'Dia 28'!C29</f>
         <v>0</v>
       </c>
-      <c r="AE7" s="29">
+      <c r="AE7" s="30">
         <f>+'Dia 29'!C29</f>
         <v>0</v>
       </c>
-      <c r="AF7" s="29">
+      <c r="AF7" s="30">
         <f>+'Dia 30'!C29</f>
         <v>0</v>
       </c>
-      <c r="AG7" s="29">
+      <c r="AG7" s="30">
         <f>+'Dia 31'!C29</f>
         <v>0</v>
       </c>
-      <c r="AH7" s="29">
+      <c r="AH7" s="30">
         <f t="shared" ref="AH7:AH15" si="0">SUM(C7:AG7)</f>
-        <v>2000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="8" spans="2:34">
       <c r="B8" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="30">
         <f>+'Dia 1'!C30</f>
         <v>0</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="30">
         <f>+'Dia 2'!C30</f>
         <v>0</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="30">
         <f>+'Dia 3'!C30</f>
         <v>0</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="30">
         <f>+'Dia 4'!C30</f>
         <v>2000</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="30">
         <f>+'Dia 5'!C30</f>
         <v>0</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="30">
         <f>+'Dia 6'!C30</f>
         <v>0</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="30">
         <f>+'Dia 7'!C30</f>
         <v>0</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="30">
         <f>+'Dia 8'!C30</f>
         <v>0</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="30">
         <f>+'Dia 9'!C30</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="29">
+        <v>2000</v>
+      </c>
+      <c r="L8" s="30">
         <f>+'Dia 10'!C30</f>
         <v>0</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="30">
         <f>+'Dia 11'!C30</f>
         <v>0</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="30">
         <f>+'Dia 12'!C30</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="29">
+        <v>2000</v>
+      </c>
+      <c r="O8" s="30">
         <f>+'Dia 13'!C30</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="29">
+        <v>2000</v>
+      </c>
+      <c r="P8" s="30">
         <f>+'Dia 14'!C30</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="29">
+        <v>2000</v>
+      </c>
+      <c r="Q8" s="30">
         <f>+'Dia 15'!C30</f>
         <v>0</v>
       </c>
-      <c r="R8" s="29">
+      <c r="R8" s="30">
         <f>+'Dia 16'!C30</f>
         <v>0</v>
       </c>
-      <c r="S8" s="29">
+      <c r="S8" s="30">
         <f>+'Dia 17'!C30</f>
         <v>0</v>
       </c>
-      <c r="T8" s="29">
+      <c r="T8" s="30">
         <f>+'Dia 18'!C30</f>
         <v>0</v>
       </c>
-      <c r="U8" s="29">
+      <c r="U8" s="30">
         <f>+'Dia 19'!C30</f>
         <v>0</v>
       </c>
-      <c r="V8" s="29">
+      <c r="V8" s="30">
         <f>+'Dia 20'!C30</f>
         <v>0</v>
       </c>
-      <c r="W8" s="29">
+      <c r="W8" s="30">
         <f>+'Dia 21'!C30</f>
         <v>0</v>
       </c>
-      <c r="X8" s="29">
+      <c r="X8" s="30">
         <f>+'Dia 22'!C30</f>
         <v>0</v>
       </c>
-      <c r="Y8" s="29">
+      <c r="Y8" s="30">
         <f>+'Dia 23'!C30</f>
         <v>0</v>
       </c>
-      <c r="Z8" s="29">
+      <c r="Z8" s="30">
         <f>+'Dia 24'!C30</f>
         <v>0</v>
       </c>
-      <c r="AA8" s="29">
+      <c r="AA8" s="30">
         <f>+'Dia 25'!C30</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="29">
+      <c r="AB8" s="30">
         <f>+'Dia 26'!C30</f>
         <v>0</v>
       </c>
-      <c r="AC8" s="29">
+      <c r="AC8" s="30">
         <f>+'Dia 27'!C30</f>
         <v>0</v>
       </c>
-      <c r="AD8" s="29">
+      <c r="AD8" s="30">
         <f>+'Dia 28'!C30</f>
         <v>0</v>
       </c>
-      <c r="AE8" s="29">
+      <c r="AE8" s="30">
         <f>+'Dia 29'!C30</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="29">
+      <c r="AF8" s="30">
         <f>+'Dia 30'!C30</f>
         <v>0</v>
       </c>
-      <c r="AG8" s="29">
+      <c r="AG8" s="30">
         <f>+'Dia 31'!C30</f>
         <v>0</v>
       </c>
-      <c r="AH8" s="29">
+      <c r="AH8" s="30">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="9" spans="2:34">
       <c r="B9" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="30">
         <f>+'Dia 1'!C31</f>
         <v>0</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="30">
         <f>+'Dia 2'!C31</f>
         <v>0</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="30">
         <f>+'Dia 3'!C31</f>
         <v>0</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="30">
         <f>+'Dia 4'!C31</f>
         <v>2000</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="30">
         <f>+'Dia 5'!C31</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="29">
+        <v>2000</v>
+      </c>
+      <c r="H9" s="30">
         <f>+'Dia 6'!C31</f>
         <v>0</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="30">
         <f>+'Dia 7'!C31</f>
         <v>0</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="30">
         <f>+'Dia 8'!C31</f>
         <v>0</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="30">
         <f>+'Dia 9'!C31</f>
         <v>0</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="30">
         <f>+'Dia 10'!C31</f>
         <v>0</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="30">
         <f>+'Dia 11'!C31</f>
         <v>0</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="30">
         <f>+'Dia 12'!C31</f>
         <v>0</v>
       </c>
-      <c r="O9" s="29">
+      <c r="O9" s="30">
         <f>+'Dia 13'!C31</f>
         <v>0</v>
       </c>
-      <c r="P9" s="29">
+      <c r="P9" s="30">
         <f>+'Dia 14'!C31</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="29">
+      <c r="Q9" s="30">
         <f>+'Dia 15'!C31</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="29">
+        <v>2000</v>
+      </c>
+      <c r="R9" s="30">
         <f>+'Dia 16'!C31</f>
-        <v>0</v>
-      </c>
-      <c r="S9" s="29">
+        <v>2000</v>
+      </c>
+      <c r="S9" s="30">
         <f>+'Dia 17'!C31</f>
-        <v>0</v>
-      </c>
-      <c r="T9" s="29">
+        <v>2000</v>
+      </c>
+      <c r="T9" s="30">
         <f>+'Dia 18'!C31</f>
         <v>0</v>
       </c>
-      <c r="U9" s="29">
+      <c r="U9" s="30">
         <f>+'Dia 19'!C31</f>
         <v>0</v>
       </c>
-      <c r="V9" s="29">
+      <c r="V9" s="30">
         <f>+'Dia 20'!C31</f>
         <v>0</v>
       </c>
-      <c r="W9" s="29">
+      <c r="W9" s="30">
         <f>+'Dia 21'!C31</f>
         <v>0</v>
       </c>
-      <c r="X9" s="29">
+      <c r="X9" s="30">
         <f>+'Dia 22'!C31</f>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="29">
+        <v>2000</v>
+      </c>
+      <c r="Y9" s="30">
         <f>+'Dia 23'!C31</f>
         <v>0</v>
       </c>
-      <c r="Z9" s="29">
+      <c r="Z9" s="30">
         <f>+'Dia 24'!C31</f>
         <v>0</v>
       </c>
-      <c r="AA9" s="29">
+      <c r="AA9" s="30">
         <f>+'Dia 25'!C31</f>
         <v>0</v>
       </c>
-      <c r="AB9" s="29">
+      <c r="AB9" s="30">
         <f>+'Dia 26'!C31</f>
         <v>0</v>
       </c>
-      <c r="AC9" s="29">
+      <c r="AC9" s="30">
         <f>+'Dia 27'!C31</f>
         <v>0</v>
       </c>
-      <c r="AD9" s="29">
+      <c r="AD9" s="30">
         <f>+'Dia 28'!C31</f>
         <v>0</v>
       </c>
-      <c r="AE9" s="29">
+      <c r="AE9" s="30">
         <f>+'Dia 29'!C31</f>
         <v>0</v>
       </c>
-      <c r="AF9" s="29">
+      <c r="AF9" s="30">
         <f>+'Dia 30'!C31</f>
         <v>0</v>
       </c>
-      <c r="AG9" s="29">
+      <c r="AG9" s="30">
         <f>+'Dia 31'!C31</f>
         <v>0</v>
       </c>
-      <c r="AH9" s="29">
+      <c r="AH9" s="30">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="10" spans="2:34">
       <c r="B10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="30">
         <f>+'Dia 1'!C32</f>
         <v>2000</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="30">
         <f>+'Dia 2'!C32</f>
         <v>2000</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="30">
         <f>+'Dia 3'!C32</f>
         <v>0</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="30">
         <f>+'Dia 4'!C32</f>
         <v>0</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="30">
         <f>+'Dia 5'!C32</f>
         <v>0</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="30">
         <f>+'Dia 6'!C32</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="29">
+        <v>2000</v>
+      </c>
+      <c r="I10" s="30">
         <f>+'Dia 7'!C32</f>
         <v>0</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="30">
         <f>+'Dia 8'!C32</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="29">
+        <v>2000</v>
+      </c>
+      <c r="K10" s="30">
         <f>+'Dia 9'!C32</f>
         <v>0</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="30">
         <f>+'Dia 10'!C32</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="29">
+        <v>2000</v>
+      </c>
+      <c r="M10" s="30">
         <f>+'Dia 11'!C32</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="29">
+        <v>2000</v>
+      </c>
+      <c r="N10" s="30">
         <f>+'Dia 12'!C32</f>
         <v>0</v>
       </c>
-      <c r="O10" s="29">
+      <c r="O10" s="30">
         <f>+'Dia 13'!C32</f>
         <v>0</v>
       </c>
-      <c r="P10" s="29">
+      <c r="P10" s="30">
         <f>+'Dia 14'!C32</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="29">
+      <c r="Q10" s="30">
         <f>+'Dia 15'!C32</f>
         <v>0</v>
       </c>
-      <c r="R10" s="29">
+      <c r="R10" s="30">
         <f>+'Dia 16'!C32</f>
         <v>0</v>
       </c>
-      <c r="S10" s="29">
+      <c r="S10" s="30">
         <f>+'Dia 17'!C32</f>
         <v>0</v>
       </c>
-      <c r="T10" s="29">
+      <c r="T10" s="30">
         <f>+'Dia 18'!C32</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="29">
+        <v>2000</v>
+      </c>
+      <c r="U10" s="30">
         <f>+'Dia 19'!C32</f>
         <v>0</v>
       </c>
-      <c r="V10" s="29">
+      <c r="V10" s="30">
         <f>+'Dia 20'!C32</f>
-        <v>0</v>
-      </c>
-      <c r="W10" s="29">
+        <v>2000</v>
+      </c>
+      <c r="W10" s="30">
         <f>+'Dia 21'!C32</f>
         <v>0</v>
       </c>
-      <c r="X10" s="29">
+      <c r="X10" s="30">
         <f>+'Dia 22'!C32</f>
         <v>0</v>
       </c>
-      <c r="Y10" s="29">
+      <c r="Y10" s="30">
         <f>+'Dia 23'!C32</f>
         <v>0</v>
       </c>
-      <c r="Z10" s="29">
+      <c r="Z10" s="30">
         <f>+'Dia 24'!C32</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="29">
+      <c r="AA10" s="30">
         <f>+'Dia 25'!C32</f>
         <v>0</v>
       </c>
-      <c r="AB10" s="29">
+      <c r="AB10" s="30">
         <f>+'Dia 26'!C32</f>
         <v>0</v>
       </c>
-      <c r="AC10" s="29">
+      <c r="AC10" s="30">
         <f>+'Dia 27'!C32</f>
         <v>0</v>
       </c>
-      <c r="AD10" s="29">
+      <c r="AD10" s="30">
         <f>+'Dia 28'!C32</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="29">
+      <c r="AE10" s="30">
         <f>+'Dia 29'!C32</f>
         <v>0</v>
       </c>
-      <c r="AF10" s="29">
+      <c r="AF10" s="30">
         <f>+'Dia 30'!C32</f>
         <v>0</v>
       </c>
-      <c r="AG10" s="29">
+      <c r="AG10" s="30">
         <f>+'Dia 31'!C32</f>
         <v>0</v>
       </c>
-      <c r="AH10" s="29">
+      <c r="AH10" s="30">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="11" spans="2:34">
       <c r="B11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="30">
         <f>+'Dia 1'!C33</f>
         <v>0</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="30">
         <f>+'Dia 1'!D33</f>
         <v>0</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="30">
         <f>+'Dia 1'!E33</f>
         <v>0</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="30">
         <f>+'Dia 1'!F33</f>
         <v>0</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="30">
         <f>+'Dia 1'!G33</f>
         <v>0</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="30">
         <f>+'Dia 1'!H33</f>
         <v>0</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="30">
         <f>+'Dia 1'!I33</f>
         <v>0</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="30">
         <f>+'Dia 1'!J33</f>
         <v>0</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="30">
         <f>+'Dia 1'!K33</f>
         <v>0</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L11" s="30">
         <f>+'Dia 1'!L33</f>
         <v>0</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="30">
         <f>+'Dia 1'!M33</f>
         <v>0</v>
       </c>
-      <c r="N11" s="29">
+      <c r="N11" s="30">
         <f>+'Dia 1'!N33</f>
         <v>0</v>
       </c>
-      <c r="O11" s="29">
+      <c r="O11" s="30">
         <f>+'Dia 1'!O33</f>
         <v>0</v>
       </c>
-      <c r="P11" s="29">
+      <c r="P11" s="30">
         <f>+'Dia 1'!P33</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="29">
+      <c r="Q11" s="30">
         <f>+'Dia 1'!Q33</f>
         <v>0</v>
       </c>
-      <c r="R11" s="29">
+      <c r="R11" s="30">
         <f>+'Dia 1'!R33</f>
         <v>0</v>
       </c>
-      <c r="S11" s="29">
+      <c r="S11" s="30">
         <f>+'Dia 1'!S33</f>
         <v>0</v>
       </c>
-      <c r="T11" s="29">
+      <c r="T11" s="30">
         <f>+'Dia 1'!T33</f>
         <v>0</v>
       </c>
-      <c r="U11" s="29">
+      <c r="U11" s="30">
         <f>+'Dia 1'!U33</f>
         <v>0</v>
       </c>
-      <c r="V11" s="29">
+      <c r="V11" s="30">
         <f>+'Dia 1'!V33</f>
         <v>0</v>
       </c>
-      <c r="W11" s="29">
+      <c r="W11" s="30">
         <f>+'Dia 1'!W33</f>
         <v>0</v>
       </c>
-      <c r="X11" s="29">
+      <c r="X11" s="30">
         <f>+'Dia 1'!X33</f>
         <v>0</v>
       </c>
-      <c r="Y11" s="29">
+      <c r="Y11" s="30">
         <f>+'Dia 1'!Y33</f>
         <v>0</v>
       </c>
-      <c r="Z11" s="29">
+      <c r="Z11" s="30">
         <f>+'Dia 1'!Z33</f>
         <v>0</v>
       </c>
-      <c r="AA11" s="29">
+      <c r="AA11" s="30">
         <f>+'Dia 1'!AA33</f>
         <v>0</v>
       </c>
-      <c r="AB11" s="29">
+      <c r="AB11" s="30">
         <f>+'Dia 1'!AB33</f>
         <v>0</v>
       </c>
-      <c r="AC11" s="29">
+      <c r="AC11" s="30">
         <f>+'Dia 1'!AC33</f>
         <v>0</v>
       </c>
-      <c r="AD11" s="29">
+      <c r="AD11" s="30">
         <f>+'Dia 1'!AD33</f>
         <v>0</v>
       </c>
-      <c r="AE11" s="29">
+      <c r="AE11" s="30">
         <f>+'Dia 1'!AE33</f>
         <v>0</v>
       </c>
-      <c r="AF11" s="29">
+      <c r="AF11" s="30">
         <f>+'Dia 1'!AF33</f>
         <v>0</v>
       </c>
-      <c r="AG11" s="29">
+      <c r="AG11" s="30">
         <f>+'Dia 1'!AG33</f>
         <v>0</v>
       </c>
-      <c r="AH11" s="29">
+      <c r="AH11" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -10896,131 +10987,131 @@
       <c r="B12" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="30">
         <f>+'Dia 1'!C34</f>
         <v>0</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="30">
         <f>+'Dia 2'!C34</f>
         <v>0</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="30">
         <f>+'Dia 3'!C34</f>
         <v>0</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="30">
         <f>+'Dia 4'!C34</f>
         <v>0</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="30">
         <f>+'Dia 5'!C34</f>
         <v>0</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="30">
         <f>+'Dia 6'!C34</f>
         <v>0</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="30">
         <f>+'Dia 7'!C34</f>
         <v>0</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="30">
         <f>+'Dia 8'!C34</f>
         <v>0</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="30">
         <f>+'Dia 9'!C34</f>
         <v>0</v>
       </c>
-      <c r="L12" s="29">
+      <c r="L12" s="30">
         <f>+'Dia 10'!C34</f>
         <v>0</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="30">
         <f>+'Dia 11'!C34</f>
         <v>0</v>
       </c>
-      <c r="N12" s="29">
+      <c r="N12" s="30">
         <f>+'Dia 12'!C34</f>
         <v>0</v>
       </c>
-      <c r="O12" s="29">
+      <c r="O12" s="30">
         <f>+'Dia 13'!C34</f>
         <v>0</v>
       </c>
-      <c r="P12" s="29">
+      <c r="P12" s="30">
         <f>+'Dia 14'!C34</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="29">
+      <c r="Q12" s="30">
         <f>+'Dia 15'!C34</f>
         <v>0</v>
       </c>
-      <c r="R12" s="29">
+      <c r="R12" s="30">
         <f>+'Dia 16'!C34</f>
         <v>0</v>
       </c>
-      <c r="S12" s="29">
+      <c r="S12" s="30">
         <f>+'Dia 17'!C34</f>
         <v>0</v>
       </c>
-      <c r="T12" s="29">
+      <c r="T12" s="30">
         <f>+'Dia 18'!C34</f>
         <v>0</v>
       </c>
-      <c r="U12" s="29">
+      <c r="U12" s="30">
         <f>+'Dia 19'!C34</f>
         <v>0</v>
       </c>
-      <c r="V12" s="29">
+      <c r="V12" s="30">
         <f>+'Dia 20'!C34</f>
         <v>0</v>
       </c>
-      <c r="W12" s="29">
+      <c r="W12" s="30">
         <f>+'Dia 21'!C34</f>
         <v>0</v>
       </c>
-      <c r="X12" s="29">
+      <c r="X12" s="30">
         <f>+'Dia 22'!C34</f>
         <v>0</v>
       </c>
-      <c r="Y12" s="29">
+      <c r="Y12" s="30">
         <f>+'Dia 23'!C34</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="29">
+      <c r="Z12" s="30">
         <f>+'Dia 24'!C34</f>
         <v>0</v>
       </c>
-      <c r="AA12" s="29">
+      <c r="AA12" s="30">
         <f>+'Dia 25'!C34</f>
         <v>0</v>
       </c>
-      <c r="AB12" s="29">
+      <c r="AB12" s="30">
         <f>+'Dia 26'!C34</f>
         <v>0</v>
       </c>
-      <c r="AC12" s="29">
+      <c r="AC12" s="30">
         <f>+'Dia 27'!C34</f>
         <v>0</v>
       </c>
-      <c r="AD12" s="29">
+      <c r="AD12" s="30">
         <f>+'Dia 28'!C34</f>
         <v>0</v>
       </c>
-      <c r="AE12" s="29">
+      <c r="AE12" s="30">
         <f>+'Dia 29'!C34</f>
         <v>0</v>
       </c>
-      <c r="AF12" s="29">
+      <c r="AF12" s="30">
         <f>+'Dia 30'!C34</f>
         <v>0</v>
       </c>
-      <c r="AG12" s="29">
+      <c r="AG12" s="30">
         <f>+'Dia 31'!C34</f>
         <v>0</v>
       </c>
-      <c r="AH12" s="29">
+      <c r="AH12" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -11029,520 +11120,520 @@
       <c r="B13" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="30">
         <f>+'Dia 1'!C35</f>
         <v>0</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="30">
         <f>+'Dia 1'!D35</f>
         <v>0</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="30">
         <f>+'Dia 1'!E35</f>
         <v>0</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="30">
         <f>+'Dia 1'!F35</f>
         <v>0</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="30">
         <f>+'Dia 1'!G35</f>
         <v>0</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="30">
         <f>+'Dia 1'!H35</f>
         <v>0</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="30">
         <f>+'Dia 1'!I35</f>
         <v>0</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="30">
         <f>+'Dia 1'!J35</f>
         <v>0</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="30">
         <f>+'Dia 1'!K35</f>
         <v>0</v>
       </c>
-      <c r="L13" s="29">
+      <c r="L13" s="30">
         <f>+'Dia 1'!L35</f>
         <v>0</v>
       </c>
-      <c r="M13" s="29">
+      <c r="M13" s="30">
         <f>+'Dia 1'!M35</f>
         <v>0</v>
       </c>
-      <c r="N13" s="29">
+      <c r="N13" s="30">
         <f>+'Dia 1'!N35</f>
         <v>0</v>
       </c>
-      <c r="O13" s="29">
+      <c r="O13" s="30">
         <f>+'Dia 1'!O35</f>
         <v>0</v>
       </c>
-      <c r="P13" s="29">
+      <c r="P13" s="30">
         <f>+'Dia 1'!P35</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="29">
+      <c r="Q13" s="30">
         <f>+'Dia 1'!Q35</f>
         <v>0</v>
       </c>
-      <c r="R13" s="29">
+      <c r="R13" s="30">
         <f>+'Dia 1'!R35</f>
         <v>0</v>
       </c>
-      <c r="S13" s="29">
+      <c r="S13" s="30">
         <f>+'Dia 1'!S35</f>
         <v>0</v>
       </c>
-      <c r="T13" s="29">
+      <c r="T13" s="30">
         <f>+'Dia 1'!T35</f>
         <v>0</v>
       </c>
-      <c r="U13" s="29">
+      <c r="U13" s="30">
         <f>+'Dia 1'!U35</f>
         <v>0</v>
       </c>
-      <c r="V13" s="29">
+      <c r="V13" s="30">
         <f>+'Dia 1'!V35</f>
         <v>0</v>
       </c>
-      <c r="W13" s="29">
+      <c r="W13" s="30">
         <f>+'Dia 1'!W35</f>
         <v>0</v>
       </c>
-      <c r="X13" s="29">
+      <c r="X13" s="30">
         <f>+'Dia 1'!X35</f>
         <v>0</v>
       </c>
-      <c r="Y13" s="29">
+      <c r="Y13" s="30">
         <f>+'Dia 1'!Y35</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="29">
+      <c r="Z13" s="30">
         <f>+'Dia 1'!Z35</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="29">
+      <c r="AA13" s="30">
         <f>+'Dia 1'!AA35</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="29">
+      <c r="AB13" s="30">
         <f>+'Dia 1'!AB35</f>
         <v>0</v>
       </c>
-      <c r="AC13" s="29">
+      <c r="AC13" s="30">
         <f>+'Dia 1'!AC35</f>
         <v>0</v>
       </c>
-      <c r="AD13" s="29">
+      <c r="AD13" s="30">
         <f>+'Dia 1'!AD35</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="29">
+      <c r="AE13" s="30">
         <f>+'Dia 1'!AE35</f>
         <v>0</v>
       </c>
-      <c r="AF13" s="29">
+      <c r="AF13" s="30">
         <f>+'Dia 1'!AF35</f>
         <v>0</v>
       </c>
-      <c r="AG13" s="29">
+      <c r="AG13" s="30">
         <f>+'Dia 1'!AG35</f>
         <v>0</v>
       </c>
-      <c r="AH13" s="29">
+      <c r="AH13" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:34">
-      <c r="B14" s="30">
+      <c r="B14" s="31">
         <v>0.02</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="30">
         <f>+'Dia 1'!C37</f>
         <v>3438</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="30">
         <f>+'Dia 2'!C37</f>
         <v>2853</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="30">
         <f>+'Dia 3'!E37</f>
         <v>0</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="30">
         <f>+'Dia 4'!F37</f>
         <v>0</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="30">
         <f>+'Dia 5'!G37</f>
         <v>0</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="30">
         <f>+'Dia 6'!H37</f>
         <v>0</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="30">
         <f>+'Dia 7'!I37</f>
         <v>0</v>
       </c>
-      <c r="J14" s="29">
+      <c r="J14" s="30">
         <f>+'Dia 8'!J37</f>
         <v>0</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="30">
         <f>+'Dia 9'!K37</f>
         <v>0</v>
       </c>
-      <c r="L14" s="29">
+      <c r="L14" s="30">
         <f>+'Dia 10'!L37</f>
         <v>0</v>
       </c>
-      <c r="M14" s="29">
+      <c r="M14" s="30">
         <f>+'Dia 11'!M37</f>
         <v>0</v>
       </c>
-      <c r="N14" s="29">
+      <c r="N14" s="30">
         <f>+'Dia 12'!N37</f>
         <v>0</v>
       </c>
-      <c r="O14" s="29">
+      <c r="O14" s="30">
         <f>+'Dia 13'!O37</f>
         <v>0</v>
       </c>
-      <c r="P14" s="29">
+      <c r="P14" s="30">
         <f>+'Dia 14'!P37</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="29">
+      <c r="Q14" s="30">
         <f>+'Dia 15'!Q37</f>
         <v>0</v>
       </c>
-      <c r="R14" s="29">
+      <c r="R14" s="30">
         <f>+'Dia 1'!R37</f>
         <v>0</v>
       </c>
-      <c r="S14" s="29">
+      <c r="S14" s="30">
         <f>+'Dia 1'!S37</f>
         <v>0</v>
       </c>
-      <c r="T14" s="29">
+      <c r="T14" s="30">
         <f>+'Dia 1'!T37</f>
         <v>0</v>
       </c>
-      <c r="U14" s="29">
+      <c r="U14" s="30">
         <f>+'Dia 1'!U37</f>
         <v>0</v>
       </c>
-      <c r="V14" s="29">
+      <c r="V14" s="30">
         <f>+'Dia 1'!V37</f>
         <v>0</v>
       </c>
-      <c r="W14" s="29">
+      <c r="W14" s="30">
         <f>+'Dia 1'!W37</f>
         <v>0</v>
       </c>
-      <c r="X14" s="29">
+      <c r="X14" s="30">
         <f>+'Dia 1'!X37</f>
         <v>0</v>
       </c>
-      <c r="Y14" s="29">
+      <c r="Y14" s="30">
         <f>+'Dia 1'!Y37</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="29">
+      <c r="Z14" s="30">
         <f>+'Dia 1'!Z37</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="29">
+      <c r="AA14" s="30">
         <f>+'Dia 1'!AA37</f>
         <v>0</v>
       </c>
-      <c r="AB14" s="29">
+      <c r="AB14" s="30">
         <f>+'Dia 1'!AB37</f>
         <v>0</v>
       </c>
-      <c r="AC14" s="29">
+      <c r="AC14" s="30">
         <f>+'Dia 1'!AC37</f>
         <v>0</v>
       </c>
-      <c r="AD14" s="29">
+      <c r="AD14" s="30">
         <f>+'Dia 1'!AD37</f>
         <v>0</v>
       </c>
-      <c r="AE14" s="29">
+      <c r="AE14" s="30">
         <f>+'Dia 1'!AE37</f>
         <v>0</v>
       </c>
-      <c r="AF14" s="29">
+      <c r="AF14" s="30">
         <f>+'Dia 1'!AF37</f>
         <v>0</v>
       </c>
-      <c r="AG14" s="29">
+      <c r="AG14" s="30">
         <f>+'Dia 1'!AG37</f>
         <v>0</v>
       </c>
-      <c r="AH14" s="29">
+      <c r="AH14" s="30">
         <f t="shared" si="0"/>
         <v>6291</v>
       </c>
     </row>
     <row r="15" spans="3:34">
-      <c r="C15" s="29">
+      <c r="C15" s="30">
         <f>SUM(C6:C14)</f>
         <v>7438</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="30">
         <f t="shared" ref="D15:AG15" si="1">SUM(D6:D14)</f>
         <v>6853</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="30">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="30">
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="29">
+        <v>4000</v>
+      </c>
+      <c r="H15" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="29">
+        <v>4000</v>
+      </c>
+      <c r="I15" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J15" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="29">
+        <v>4000</v>
+      </c>
+      <c r="K15" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="29">
+        <v>4000</v>
+      </c>
+      <c r="L15" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="29">
+        <v>4000</v>
+      </c>
+      <c r="M15" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="29">
+        <v>4000</v>
+      </c>
+      <c r="N15" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="29">
+        <v>4000</v>
+      </c>
+      <c r="O15" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="29">
+        <v>4000</v>
+      </c>
+      <c r="P15" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="29">
+        <v>4000</v>
+      </c>
+      <c r="Q15" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="29">
+        <v>4000</v>
+      </c>
+      <c r="R15" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="29">
+        <v>4000</v>
+      </c>
+      <c r="S15" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="29">
+        <v>4000</v>
+      </c>
+      <c r="T15" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="29">
+        <v>4000</v>
+      </c>
+      <c r="U15" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V15" s="29">
+      <c r="V15" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="29">
+        <v>4000</v>
+      </c>
+      <c r="W15" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X15" s="29">
+      <c r="X15" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="29">
+        <v>4000</v>
+      </c>
+      <c r="Y15" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="29">
+      <c r="Z15" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="29">
+      <c r="AA15" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB15" s="29">
+      <c r="AB15" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC15" s="29">
+      <c r="AC15" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="29">
+      <c r="AD15" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE15" s="29">
+      <c r="AE15" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="29">
+      <c r="AF15" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG15" s="29">
+      <c r="AG15" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AH15" s="29">
+      <c r="AH15" s="30">
         <f t="shared" si="0"/>
-        <v>20291</v>
+        <v>80291</v>
       </c>
     </row>
     <row r="17" spans="3:33">
-      <c r="C17" s="29">
+      <c r="C17" s="30">
         <f>+'Dia 1'!C41</f>
         <v>0</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="30">
         <f>+'Dia 2'!C40</f>
         <v>0</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="30">
         <f>+'Dia 3'!C40</f>
         <v>0</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="30">
         <f>+'Dia 4'!C40</f>
         <v>0</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="30">
         <f>+'Dia 5'!C40</f>
         <v>0</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="30">
         <f>+'Dia 6'!C40</f>
         <v>0</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="30">
         <f>+'Dia 7'!C40</f>
         <v>0</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="30">
         <f>+'Dia 8'!C40</f>
         <v>0</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="30">
         <f>+'Dia 9'!C40</f>
         <v>0</v>
       </c>
-      <c r="L17" s="29">
+      <c r="L17" s="30">
         <f>+'Dia 10'!C40</f>
         <v>0</v>
       </c>
-      <c r="M17" s="29">
+      <c r="M17" s="30">
         <f>+'Dia 11'!C40</f>
         <v>0</v>
       </c>
-      <c r="N17" s="29">
+      <c r="N17" s="30">
         <f>+'Dia 12'!C40</f>
         <v>0</v>
       </c>
-      <c r="O17" s="29">
+      <c r="O17" s="30">
         <f>+'Dia 13'!C40</f>
         <v>0</v>
       </c>
-      <c r="P17" s="29">
+      <c r="P17" s="30">
         <f>+'Dia 14'!C40</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="29">
+      <c r="Q17" s="30">
         <f>+'Dia 15'!C40</f>
         <v>0</v>
       </c>
-      <c r="R17" s="29">
+      <c r="R17" s="30">
         <f>+'Dia 16'!C40</f>
         <v>0</v>
       </c>
-      <c r="S17" s="29">
+      <c r="S17" s="30">
         <f>+'Dia 17'!C40</f>
         <v>0</v>
       </c>
-      <c r="T17" s="29">
+      <c r="T17" s="30">
         <f>+'Dia 18'!C40</f>
         <v>0</v>
       </c>
-      <c r="U17" s="29">
+      <c r="U17" s="30">
         <f>+'Dia 19'!C40</f>
         <v>0</v>
       </c>
-      <c r="V17" s="29">
+      <c r="V17" s="30">
         <f>+'Dia 20'!C40</f>
         <v>0</v>
       </c>
-      <c r="W17" s="29">
+      <c r="W17" s="30">
         <f>+'Dia 21'!C40</f>
         <v>0</v>
       </c>
-      <c r="X17" s="29">
+      <c r="X17" s="30">
         <f>+'Dia 22'!C40</f>
         <v>0</v>
       </c>
-      <c r="Y17" s="29">
+      <c r="Y17" s="30">
         <f>+'Dia 23'!C40</f>
         <v>0</v>
       </c>
-      <c r="Z17" s="29">
+      <c r="Z17" s="30">
         <f>+'Dia 24'!C40</f>
         <v>0</v>
       </c>
-      <c r="AA17" s="29">
+      <c r="AA17" s="30">
         <f>+'Dia 25'!C40</f>
         <v>0</v>
       </c>
-      <c r="AB17" s="29">
+      <c r="AB17" s="30">
         <f>+'Dia 26'!C40</f>
         <v>0</v>
       </c>
-      <c r="AC17" s="29">
+      <c r="AC17" s="30">
         <f>+'Dia 27'!C40</f>
         <v>0</v>
       </c>
-      <c r="AD17" s="29">
+      <c r="AD17" s="30">
         <f>+'Dia 28'!C40</f>
         <v>0</v>
       </c>
-      <c r="AE17" s="29">
+      <c r="AE17" s="30">
         <f>+'Dia 29'!C40</f>
         <v>0</v>
       </c>
-      <c r="AF17" s="29">
+      <c r="AF17" s="30">
         <f>+'Dia 30'!C40</f>
         <v>0</v>
       </c>
-      <c r="AG17" s="29">
+      <c r="AG17" s="30">
         <f>+'Dia 31'!C40</f>
         <v>0</v>
       </c>
@@ -11573,7 +11664,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="4:6">
@@ -11916,7 +12007,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="4:6">
@@ -12259,7 +12350,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="4:6">
@@ -12602,7 +12693,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="4:6">
@@ -12930,7 +13021,7 @@
   <sheetPr/>
   <dimension ref="B1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:B23"/>
     </sheetView>
   </sheetViews>
@@ -12946,7 +13037,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="4:6">
@@ -13287,7 +13378,7 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -13296,34 +13387,34 @@
       </c>
       <c r="C6" s="2">
         <f>+Ventas!J35</f>
-        <v>521266</v>
+        <v>4931187</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C7" s="4">
         <f>+C6*0.1</f>
-        <v>52126.6</v>
+        <v>493118.7</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C8" s="6">
         <f>+(C6-3260)*0.05</f>
-        <v>25900.3</v>
+        <v>246396.35</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C9" s="8">
         <f>+C6-C7-C8</f>
-        <v>443239.1</v>
+        <v>4191671.95</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -13332,7 +13423,7 @@
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -13341,11 +13432,11 @@
       </c>
       <c r="C11" s="4">
         <f>+'Dia 1'!C10+'Dia 2'!C10+'Dia 3'!C10+'Dia 4'!C10+'Dia 5'!C10+'Dia 6'!C10+'Dia 7'!C10+'Dia 8'!C10+'Dia 9'!C10+'Dia 10'!C10+'Dia 11'!C10+'Dia 12'!C10+'Dia 13'!C10+'Dia 14'!C10+'Dia 15'!C10+'Dia 16'!C10+'Dia 17'!C10+'Dia 18'!C10+'Dia 19'!C10+'Dia 20'!C10+'Dia 21'!C10+'Dia 22'!C10+'Dia 23'!C10+'Dia 24'!C10+'Dia 25'!C10+'Dia 26'!C10+'Dia 27'!C10+'Dia 28'!C10+'Dia 29'!C10+'Dia 30'!C10+'Dia 31'!C10</f>
-        <v>24425.32</v>
+        <v>268683.74</v>
       </c>
       <c r="D11" s="11">
         <f t="shared" ref="D11:D24" si="0">+C11/$C$25</f>
-        <v>0.196462957022753</v>
+        <v>0.728962541863621</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -13410,7 +13501,7 @@
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>0.00522821899835046</v>
+        <v>0.00176350698487133</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -13423,7 +13514,7 @@
       </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
-        <v>0.542930434444086</v>
+        <v>0.183133417659716</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -13436,7 +13527,7 @@
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>0.199074492629498</v>
+        <v>0.0671489198085624</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -13462,7 +13553,7 @@
       </c>
       <c r="D20" s="11">
         <f t="shared" si="0"/>
-        <v>0.0563038969053126</v>
+        <v>0.0189916136832298</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -13523,82 +13614,82 @@
       </c>
       <c r="C25" s="2">
         <f>SUM(C11:C24)</f>
-        <v>124325.32</v>
+        <v>368583.74</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C26" s="4">
         <f>+C9-C25</f>
-        <v>318913.78</v>
+        <v>3823088.21</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C29" s="4">
         <f>+C11*0.125</f>
-        <v>3053.165</v>
+        <v>33585.4675</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C30" s="4">
         <f>+C11*0.05</f>
-        <v>1221.266</v>
+        <v>13434.187</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C31" s="2">
         <f>SUM(C29:C30)</f>
-        <v>4274.431</v>
+        <v>47019.6545</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C32" s="2">
         <f>+C26-C31</f>
-        <v>314639.349</v>
+        <v>3776068.5555</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C33" s="2">
         <f>+C32*0.35</f>
-        <v>110123.77215</v>
+        <v>1321623.994425</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C34" s="2">
         <f>+C32-C33</f>
-        <v>204515.57685</v>
+        <v>2454444.561075</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C36" s="3">
         <f>+C13/C6</f>
@@ -13607,11 +13698,11 @@
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C37" s="3">
         <f>+C25/C6</f>
-        <v>0.238506482295028</v>
+        <v>0.0747454395868581</v>
       </c>
     </row>
   </sheetData>
@@ -14010,7 +14101,7 @@
   <sheetPr/>
   <dimension ref="B1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -14358,7 +14449,7 @@
   <sheetPr/>
   <dimension ref="B1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -14703,8 +14794,8 @@
   <sheetPr/>
   <dimension ref="B1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="102" zoomScaleNormal="102" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -14835,7 +14926,7 @@
       </c>
       <c r="C10" s="4">
         <f>+C42</f>
-        <v>6124</v>
+        <v>15124</v>
       </c>
       <c r="D10" s="21"/>
     </row>
@@ -14930,7 +15021,7 @@
       </c>
       <c r="C24" s="2">
         <f>SUM(C10:C23)</f>
-        <v>6124</v>
+        <v>15124</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -14973,11 +15064,17 @@
       </c>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:4">
       <c r="B33" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="4"/>
+      <c r="C33" s="4">
+        <f>D33*F2</f>
+        <v>9000</v>
+      </c>
+      <c r="D33">
+        <v>20</v>
+      </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="3" t="s">
@@ -15026,7 +15123,7 @@
       </c>
       <c r="C42" s="2">
         <f>SUM(C28:C41)</f>
-        <v>6124</v>
+        <v>15124</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -15051,7 +15148,7 @@
   <dimension ref="B1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -15060,7 +15157,8 @@
     <col min="3" max="3" width="21.3359375" customWidth="1"/>
     <col min="4" max="4" width="19.890625" customWidth="1"/>
     <col min="5" max="7" width="17.3359375" customWidth="1"/>
-    <col min="8" max="8" width="16.3359375" customWidth="1"/>
+    <col min="8" max="8" width="34.9375" customWidth="1"/>
+    <col min="10" max="10" width="13.875"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
@@ -15076,7 +15174,7 @@
         <v>440</v>
       </c>
       <c r="F2">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -15096,7 +15194,7 @@
         <v>36</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="H3" s="28" t="s">
         <v>85</v>
@@ -15120,21 +15218,21 @@
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>33250</v>
       </c>
       <c r="H4" s="4">
-        <v>0</v>
+        <v>8740</v>
       </c>
       <c r="I4" s="4">
         <f>+C4+E5+F5+G4+H4+D5</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
+        <v>221540</v>
+      </c>
+      <c r="J4" s="29">
         <f>+I4/F2</f>
-        <v>0</v>
+        <v>492.311111111111</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -15150,7 +15248,7 @@
       </c>
       <c r="F5" s="4">
         <f>+F4*F2</f>
-        <v>0</v>
+        <v>179550</v>
       </c>
       <c r="G5" s="18"/>
       <c r="I5" s="18"/>
@@ -15167,7 +15265,7 @@
       </c>
       <c r="C8" s="2">
         <f>+I4</f>
-        <v>0</v>
+        <v>221540</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -15182,7 +15280,7 @@
       </c>
       <c r="C10" s="4">
         <f>+C42</f>
-        <v>0</v>
+        <v>8430.8</v>
       </c>
       <c r="D10" s="21"/>
     </row>
@@ -15279,7 +15377,7 @@
       </c>
       <c r="C24" s="2">
         <f>SUM(C10:C23)</f>
-        <v>1000</v>
+        <v>9430.8</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -15298,7 +15396,9 @@
       <c r="B29" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
@@ -15310,7 +15410,9 @@
       <c r="B31" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="3" t="s">
@@ -15346,7 +15448,7 @@
       </c>
       <c r="C37" s="4">
         <f>+I4*0.02</f>
-        <v>0</v>
+        <v>4430.8</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -15371,7 +15473,7 @@
       </c>
       <c r="C42" s="2">
         <f>SUM(C28:C41)</f>
-        <v>0</v>
+        <v>8430.8</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -15396,7 +15498,7 @@
   <dimension ref="B1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD47"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -15405,7 +15507,7 @@
     <col min="3" max="3" width="21.3359375" customWidth="1"/>
     <col min="4" max="4" width="19.890625" customWidth="1"/>
     <col min="5" max="7" width="17.3359375" customWidth="1"/>
-    <col min="8" max="8" width="16.3359375" customWidth="1"/>
+    <col min="8" max="8" width="34.9375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
@@ -15421,7 +15523,7 @@
         <v>440</v>
       </c>
       <c r="F2">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -15441,7 +15543,7 @@
         <v>36</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="H3" s="28" t="s">
         <v>85</v>
@@ -15456,7 +15558,7 @@
     <row r="4" spans="2:10">
       <c r="B4" s="15"/>
       <c r="C4" s="16">
-        <v>0</v>
+        <v>22500</v>
       </c>
       <c r="D4" s="16">
         <v>0</v>
@@ -15465,21 +15567,21 @@
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>49800</v>
       </c>
       <c r="H4" s="4">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I4" s="4">
         <f>+C4+E5+F5+G4+H4+D5</f>
-        <v>0</v>
+        <v>271750</v>
       </c>
       <c r="J4" s="3">
         <f>+I4/F2</f>
-        <v>0</v>
+        <v>603.888888888889</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -15495,7 +15597,7 @@
       </c>
       <c r="F5" s="4">
         <f>+F4*F2</f>
-        <v>0</v>
+        <v>189450</v>
       </c>
       <c r="G5" s="18"/>
       <c r="I5" s="18"/>
@@ -15512,7 +15614,7 @@
       </c>
       <c r="C8" s="2">
         <f>+I4</f>
-        <v>0</v>
+        <v>271750</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -15527,7 +15629,7 @@
       </c>
       <c r="C10" s="4">
         <f>+C42</f>
-        <v>0</v>
+        <v>31935</v>
       </c>
       <c r="D10" s="21"/>
     </row>
@@ -15622,7 +15724,7 @@
       </c>
       <c r="C24" s="2">
         <f>SUM(C10:C23)</f>
-        <v>0</v>
+        <v>31935</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -15635,7 +15737,9 @@
       <c r="B28" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="3" t="s">
@@ -15659,7 +15763,9 @@
       <c r="B32" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="3" t="s">
@@ -15679,9 +15785,17 @@
       </c>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
+    <row r="36" spans="2:4">
+      <c r="B36" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="4">
+        <f>D36*F2</f>
+        <v>22500</v>
+      </c>
+      <c r="D36">
+        <v>50</v>
+      </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="23">
@@ -15689,7 +15803,7 @@
       </c>
       <c r="C37" s="4">
         <f>+I4*0.02</f>
-        <v>0</v>
+        <v>5435</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -15714,7 +15828,7 @@
       </c>
       <c r="C42" s="2">
         <f>SUM(C28:C41)</f>
-        <v>0</v>
+        <v>31935</v>
       </c>
     </row>
     <row r="43" spans="2:3">

--- a/Registro diario_DICIEMBRE25.xlsx
+++ b/Registro diario_DICIEMBRE25.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15740" windowHeight="12580" tabRatio="605" firstSheet="23" activeTab="25"/>
+    <workbookView windowWidth="28800" windowHeight="12580" tabRatio="605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Leyenda" sheetId="34" r:id="rId1"/>
@@ -478,14 +478,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="177" formatCode="[$$-409]#,##0.00"/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.0"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="0.0%"/>
+    <numFmt numFmtId="179" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="#,##0.0"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -526,22 +526,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -551,6 +535,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,6 +563,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -580,7 +572,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,9 +580,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -604,6 +596,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -617,6 +617,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -624,9 +639,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,23 +654,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -670,19 +670,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,7 +712,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,7 +736,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,7 +772,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,7 +796,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,73 +850,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,19 +868,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,15 +1013,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1051,9 +1060,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,153 +1086,160 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1229,32 +1247,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1262,19 +1280,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1284,8 +1303,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1633,7 +1659,7 @@
       </c>
     </row>
     <row r="4" spans="3:4">
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="46" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -5241,10 +5267,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:K38"/>
+  <dimension ref="B2:K43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -5252,21 +5278,21 @@
     <col min="2" max="2" width="8.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.3359375" customWidth="1"/>
     <col min="4" max="4" width="21.78125" customWidth="1"/>
-    <col min="5" max="5" width="20.890625" customWidth="1"/>
+    <col min="5" max="5" width="20.890625" style="32" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -5284,7 +5310,7 @@
       <c r="H3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="44" t="s">
         <v>38</v>
       </c>
       <c r="J3" s="14" t="s">
@@ -5298,36 +5324,36 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="33"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="4">
         <f>+'Dia 1'!C4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="38">
         <f>+'Dia 1'!D4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="39">
         <f>+'Dia 1'!E4</f>
         <v>0</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="39">
         <f>+'Dia 1'!F4</f>
         <v>382</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="39">
         <f>+'Dia 1'!G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="39">
         <f>+'Dia 1'!H4</f>
         <v>0</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="39">
         <f>+'Dia 1'!I4</f>
         <v>171900</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="39">
         <f>+'Dia 1'!J4</f>
         <v>382</v>
       </c>
@@ -5336,12 +5362,12 @@
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="4">
         <f>+'Dia 2'!C4</f>
         <v>0</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="40">
         <f>+'Dia 2'!D4</f>
         <v>0</v>
       </c>
@@ -5366,20 +5392,20 @@
         <v>142650</v>
       </c>
       <c r="K5" s="4">
-        <f>+'Dia 1'!J5</f>
-        <v>0</v>
+        <f>+'Dia 2'!J4</f>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="4">
         <f>+'Dia 3'!C4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="40">
         <f>+'Dia 3'!D4</f>
         <v>0</v>
       </c>
@@ -5404,20 +5430,20 @@
         <v>100516</v>
       </c>
       <c r="K6" s="4">
-        <f>+'Dia 1'!J6</f>
-        <v>0</v>
+        <f>+'Dia 3'!J4</f>
+        <v>223.368888888889</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="35"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="4">
         <f>+'Dia 4'!C4</f>
         <v>0</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="40">
         <f>+'Dia 4'!D4</f>
         <v>0</v>
       </c>
@@ -5442,20 +5468,20 @@
         <v>106200</v>
       </c>
       <c r="K7" s="4">
-        <f>+'Dia 1'!J7</f>
-        <v>0</v>
+        <f>+'Dia 4'!J4</f>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="35"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="4">
         <f>+'Dia 5'!C4</f>
         <v>0</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="40">
         <f>+'Dia 5'!D4</f>
         <v>0</v>
       </c>
@@ -5480,20 +5506,20 @@
         <v>221540</v>
       </c>
       <c r="K8" s="4">
-        <f>+'Dia 1'!J8</f>
-        <v>0</v>
+        <f>+'Dia 5'!J4</f>
+        <v>492.311111111111</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="35"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="4">
         <f>+'Dia 6'!C4</f>
         <v>22500</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="40">
         <f>+'Dia 6'!D4</f>
         <v>0</v>
       </c>
@@ -5518,20 +5544,20 @@
         <v>271750</v>
       </c>
       <c r="K9" s="4">
-        <f>+'Dia 1'!J9</f>
-        <v>0</v>
+        <f>+'Dia 6'!J4</f>
+        <v>603.888888888889</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="35"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="4">
         <f>+'Dia 7'!C4</f>
         <v>0</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="40">
         <f>+'Dia 7'!D4</f>
         <v>0</v>
       </c>
@@ -5556,20 +5582,20 @@
         <v>110360</v>
       </c>
       <c r="K10" s="4">
-        <f>+'Dia 1'!J10</f>
-        <v>0</v>
+        <f>+'Dia 7'!J4</f>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="4">
         <f>+'Dia 8'!C4</f>
         <v>0</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="40">
         <f>+'Dia 8'!D4</f>
         <v>0</v>
       </c>
@@ -5594,20 +5620,20 @@
         <v>235530</v>
       </c>
       <c r="K11" s="4">
-        <f>+'Dia 1'!J11</f>
-        <v>0</v>
+        <f>+'Dia 8'!J4</f>
+        <v>529.280898876405</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="C12" s="35"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="4">
         <f>+'Dia 9'!C4</f>
         <v>0</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="40">
         <f>+'Dia 9'!D4</f>
         <v>0</v>
       </c>
@@ -5632,20 +5658,20 @@
         <v>87665</v>
       </c>
       <c r="K12" s="4">
-        <f>+'Dia 1'!J12</f>
-        <v>0</v>
+        <f>+'Dia 9'!J4</f>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="1">
         <v>10</v>
       </c>
-      <c r="C13" s="35"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="4">
         <f>+'Dia 10'!C4</f>
         <v>0</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="40">
         <f>+'Dia 10'!D4</f>
         <v>0</v>
       </c>
@@ -5670,20 +5696,20 @@
         <v>154925</v>
       </c>
       <c r="K13" s="4">
-        <f>+'Dia 1'!J13</f>
-        <v>0</v>
+        <f>+'Dia 10'!J4</f>
+        <v>348.14606741573</v>
       </c>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="1">
         <v>11</v>
       </c>
-      <c r="C14" s="35"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="4">
         <f>+'Dia 11'!C4</f>
         <v>0</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="40">
         <f>+'Dia 11'!D4</f>
         <v>0</v>
       </c>
@@ -5708,20 +5734,20 @@
         <v>477225</v>
       </c>
       <c r="K14" s="4">
-        <f>+'Dia 1'!J14</f>
-        <v>0</v>
+        <f>+'Dia 11'!J4</f>
+        <v>1060.5</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="1">
         <v>12</v>
       </c>
-      <c r="C15" s="35"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="4">
         <f>+'Dia 12'!C4</f>
         <v>6600</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="40">
         <f>+'Dia 12'!D4</f>
         <v>0</v>
       </c>
@@ -5746,20 +5772,20 @@
         <v>384990</v>
       </c>
       <c r="K15" s="4">
-        <f>+'Dia 1'!J15</f>
-        <v>0</v>
+        <f>+'Dia 12'!J4</f>
+        <v>874.977272727273</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="1">
         <v>13</v>
       </c>
-      <c r="C16" s="35"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="4">
         <f>+'Dia 13'!C4</f>
         <v>0</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="40">
         <f>+'Dia 13'!D4</f>
         <v>0</v>
       </c>
@@ -5784,20 +5810,20 @@
         <v>500680</v>
       </c>
       <c r="K16" s="4">
-        <f>+'Dia 1'!J15</f>
-        <v>0</v>
+        <f>+'Dia 13'!J4</f>
+        <v>1137.90909090909</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="1">
         <v>14</v>
       </c>
-      <c r="C17" s="35"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="4">
         <f>+'Dia 14'!C4</f>
         <v>7920</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="40">
         <f>+'Dia 14'!D4</f>
         <v>0</v>
       </c>
@@ -5822,20 +5848,20 @@
         <v>251680</v>
       </c>
       <c r="K17" s="4">
-        <f>+'Dia 1'!J16</f>
-        <v>0</v>
+        <f>+'Dia 14'!J4</f>
+        <v>572</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="1">
         <v>15</v>
       </c>
-      <c r="C18" s="35"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="4">
         <f>+'Dia 15'!C4</f>
         <v>0</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="40">
         <f>+'Dia 15'!D4</f>
         <v>0</v>
       </c>
@@ -5860,20 +5886,20 @@
         <v>207416</v>
       </c>
       <c r="K18" s="4">
-        <f>+'Dia 1'!J17</f>
-        <v>0</v>
+        <f>+'Dia 15'!J4</f>
+        <v>471.4</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="1">
         <v>16</v>
       </c>
-      <c r="C19" s="35"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="4">
         <f>+'Dia 16'!C4</f>
         <v>0</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="40">
         <f>+'Dia 16'!D4</f>
         <v>0</v>
       </c>
@@ -5898,20 +5924,20 @@
         <v>243760</v>
       </c>
       <c r="K19" s="4">
-        <f>+'Dia 1'!J18</f>
-        <v>0</v>
+        <f>+'Dia 16'!J4</f>
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="1">
         <v>17</v>
       </c>
-      <c r="C20" s="35"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="4">
         <f>+'Dia 17'!C4</f>
         <v>39920</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="40">
         <f>+'Dia 17'!D4</f>
         <v>0</v>
       </c>
@@ -5936,20 +5962,20 @@
         <v>389840</v>
       </c>
       <c r="K20" s="4">
-        <f>+'Dia 1'!J19</f>
-        <v>0</v>
+        <f>+'Dia 17'!J4</f>
+        <v>886</v>
       </c>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="1">
         <v>18</v>
       </c>
-      <c r="C21" s="35"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="4">
         <f>+'Dia 18'!C4</f>
         <v>0</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="40">
         <f>+'Dia 18'!D4</f>
         <v>0</v>
       </c>
@@ -5974,20 +6000,20 @@
         <v>116080</v>
       </c>
       <c r="K21" s="4">
-        <f>+'Dia 1'!J20</f>
-        <v>0</v>
+        <f>+'Dia 18'!J4</f>
+        <v>276.380952380952</v>
       </c>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="1">
         <v>19</v>
       </c>
-      <c r="C22" s="35"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="4">
         <f>+'Dia 19'!C4</f>
         <v>0</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="40">
         <f>+'Dia 19'!D4</f>
         <v>0</v>
       </c>
@@ -6012,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="4">
-        <f>+'Dia 1'!J22</f>
+        <f>+'Dia 19'!J4</f>
         <v>0</v>
       </c>
     </row>
@@ -6020,12 +6046,12 @@
       <c r="B23" s="1">
         <v>20</v>
       </c>
-      <c r="C23" s="35"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="4">
         <f>+'Dia 20'!C4</f>
         <v>0</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="40">
         <f>+'Dia 20'!D4</f>
         <v>0</v>
       </c>
@@ -6050,20 +6076,20 @@
         <v>370130</v>
       </c>
       <c r="K23" s="4">
-        <f>+'Dia 1'!J23</f>
-        <v>0</v>
+        <f>+'Dia 20'!J4</f>
+        <v>841.204545454545</v>
       </c>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="1">
         <v>21</v>
       </c>
-      <c r="C24" s="35"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="4">
         <f>+'Dia 21'!C4</f>
         <v>0</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="40">
         <f>+'Dia 21'!D4</f>
         <v>0</v>
       </c>
@@ -6088,20 +6114,20 @@
         <v>227730</v>
       </c>
       <c r="K24" s="4">
-        <f>+'Dia 1'!J24</f>
-        <v>0</v>
+        <f>+'Dia 21'!J4</f>
+        <v>517.568181818182</v>
       </c>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="1">
         <v>22</v>
       </c>
-      <c r="C25" s="35"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="4">
         <f>+'Dia 22'!C4</f>
         <v>0</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="40">
         <f>+'Dia 22'!D4</f>
         <v>0</v>
       </c>
@@ -6126,20 +6152,20 @@
         <v>158620</v>
       </c>
       <c r="K25" s="4">
-        <f>+'Dia 1'!J25</f>
-        <v>0</v>
+        <f>+'Dia 22'!J4</f>
+        <v>360.5</v>
       </c>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="1">
         <v>23</v>
       </c>
-      <c r="C26" s="35"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="4">
         <f>+'Dia 23'!C4</f>
         <v>0</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="40">
         <f>+'Dia 23'!D4</f>
         <v>0</v>
       </c>
@@ -6149,11 +6175,11 @@
       </c>
       <c r="G26" s="4">
         <f>+'Dia 23'!F4</f>
-        <v>0</v>
+        <v>930</v>
       </c>
       <c r="H26" s="4">
         <f>+'Dia 23'!G4</f>
-        <v>0</v>
+        <v>83600</v>
       </c>
       <c r="I26" s="4">
         <f>+'Dia 23'!H4</f>
@@ -6161,11 +6187,11 @@
       </c>
       <c r="J26" s="4">
         <f>+'Dia 23'!I4</f>
-        <v>0</v>
+        <v>492800</v>
       </c>
       <c r="K26" s="4">
-        <f>+'Dia 1'!J26</f>
-        <v>0</v>
+        <f>+'Dia 23'!J4</f>
+        <v>1120</v>
       </c>
     </row>
     <row r="27" spans="2:11">
@@ -6177,7 +6203,7 @@
         <f>+'Dia 24'!C4</f>
         <v>0</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="40">
         <f>+'Dia 24'!D4</f>
         <v>0</v>
       </c>
@@ -6187,11 +6213,11 @@
       </c>
       <c r="G27" s="4">
         <f>+'Dia 24'!F4</f>
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="H27" s="4">
         <f>+'Dia 24'!G4</f>
-        <v>0</v>
+        <v>17600</v>
       </c>
       <c r="I27" s="4">
         <f>+'Dia 24'!H4</f>
@@ -6199,11 +6225,11 @@
       </c>
       <c r="J27" s="4">
         <f>+'Dia 24'!I4</f>
-        <v>0</v>
+        <v>280720</v>
       </c>
       <c r="K27" s="4">
-        <f>+'Dia 1'!J27</f>
-        <v>0</v>
+        <f>+'Dia 24'!J4</f>
+        <v>638</v>
       </c>
     </row>
     <row r="28" spans="2:11">
@@ -6215,7 +6241,7 @@
         <f>+'Dia 25'!C4</f>
         <v>0</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="40">
         <f>+'Dia 25'!D4</f>
         <v>0</v>
       </c>
@@ -6225,11 +6251,11 @@
       </c>
       <c r="G28" s="4">
         <f>+'Dia 25'!F4</f>
-        <v>0</v>
+        <v>587</v>
       </c>
       <c r="H28" s="4">
         <f>+'Dia 25'!G4</f>
-        <v>0</v>
+        <v>44000</v>
       </c>
       <c r="I28" s="4">
         <f>+'Dia 25'!H4</f>
@@ -6237,11 +6263,11 @@
       </c>
       <c r="J28" s="4">
         <f>+'Dia 25'!I4</f>
-        <v>0</v>
+        <v>302280</v>
       </c>
       <c r="K28" s="4">
-        <f>+'Dia 1'!J28</f>
-        <v>0</v>
+        <f>+'Dia 25'!J4</f>
+        <v>687</v>
       </c>
     </row>
     <row r="29" spans="2:11">
@@ -6251,23 +6277,23 @@
       <c r="C29" s="3"/>
       <c r="D29" s="4">
         <f>+'Dia 26'!C4</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E29" s="40">
         <f>+'Dia 26'!D4</f>
         <v>0</v>
       </c>
       <c r="F29" s="4">
         <f>+'Dia 26'!E4</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G29" s="4">
         <f>+'Dia 26'!F4</f>
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="H29" s="4">
         <f>+'Dia 26'!G4</f>
-        <v>0</v>
+        <v>19100</v>
       </c>
       <c r="I29" s="4">
         <f>+'Dia 26'!H4</f>
@@ -6275,11 +6301,11 @@
       </c>
       <c r="J29" s="4">
         <f>+'Dia 26'!I4</f>
-        <v>0</v>
+        <v>196780</v>
       </c>
       <c r="K29" s="4">
-        <f>+'Dia 1'!J29</f>
-        <v>0</v>
+        <f>+'Dia 26'!J4</f>
+        <v>447.227272727273</v>
       </c>
     </row>
     <row r="30" spans="2:11">
@@ -6291,7 +6317,7 @@
         <f>+'Dia 27'!C4</f>
         <v>0</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="40">
         <f>+'Dia 27'!D4</f>
         <v>0</v>
       </c>
@@ -6301,11 +6327,11 @@
       </c>
       <c r="G30" s="4">
         <f>+'Dia 27'!F4</f>
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="H30" s="4">
         <f>+'Dia 27'!G4</f>
-        <v>0</v>
+        <v>13200</v>
       </c>
       <c r="I30" s="4">
         <f>+'Dia 27'!H4</f>
@@ -6313,11 +6339,11 @@
       </c>
       <c r="J30" s="4">
         <f>+'Dia 27'!I4</f>
-        <v>0</v>
+        <v>275440</v>
       </c>
       <c r="K30" s="4">
-        <f>+'Dia 1'!J30</f>
-        <v>0</v>
+        <f>+'Dia 27'!J4</f>
+        <v>626</v>
       </c>
     </row>
     <row r="31" spans="2:11">
@@ -6329,21 +6355,21 @@
         <f>+'Dia 28'!C4</f>
         <v>0</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="40">
         <f>+'Dia 28'!D4</f>
         <v>0</v>
       </c>
       <c r="F31" s="4">
         <f>+'Dia 28'!E4</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G31" s="4">
         <f>+'Dia 28'!F4</f>
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="H31" s="4">
         <f>+'Dia 28'!G4</f>
-        <v>0</v>
+        <v>88000</v>
       </c>
       <c r="I31" s="4">
         <f>+'Dia 28'!H4</f>
@@ -6351,11 +6377,11 @@
       </c>
       <c r="J31" s="4">
         <f>+'Dia 28'!I4</f>
-        <v>0</v>
+        <v>236280</v>
       </c>
       <c r="K31" s="4">
-        <f>+'Dia 1'!J31</f>
-        <v>0</v>
+        <f>+'Dia 28'!J4</f>
+        <v>537</v>
       </c>
     </row>
     <row r="32" spans="2:11">
@@ -6367,7 +6393,7 @@
         <f>+'Dia 29'!C4</f>
         <v>0</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="40">
         <f>+'Dia 29'!D4</f>
         <v>0</v>
       </c>
@@ -6377,11 +6403,11 @@
       </c>
       <c r="G32" s="4">
         <f>+'Dia 29'!F4</f>
-        <v>0</v>
+        <v>694</v>
       </c>
       <c r="H32" s="4">
         <f>+'Dia 29'!G4</f>
-        <v>0</v>
+        <v>61100</v>
       </c>
       <c r="I32" s="4">
         <f>+'Dia 29'!H4</f>
@@ -6389,11 +6415,11 @@
       </c>
       <c r="J32" s="4">
         <f>+'Dia 29'!I4</f>
-        <v>0</v>
+        <v>366460</v>
       </c>
       <c r="K32" s="4">
-        <f>+'Dia 1'!J32</f>
-        <v>0</v>
+        <f>+'Dia 29'!J4</f>
+        <v>832.863636363636</v>
       </c>
     </row>
     <row r="33" spans="2:11">
@@ -6405,21 +6431,21 @@
         <f>+'Dia 30'!C4</f>
         <v>0</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="40">
         <f>+'Dia 30'!D4</f>
         <v>0</v>
       </c>
       <c r="F33" s="4">
         <f>+'Dia 30'!E4</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G33" s="4">
         <f>+'Dia 30'!F4</f>
-        <v>0</v>
+        <v>1641</v>
       </c>
       <c r="H33" s="4">
         <f>+'Dia 30'!G4</f>
-        <v>0</v>
+        <v>296750</v>
       </c>
       <c r="I33" s="4">
         <f>+'Dia 30'!H4</f>
@@ -6427,11 +6453,11 @@
       </c>
       <c r="J33" s="4">
         <f>+'Dia 30'!I4</f>
-        <v>0</v>
+        <v>1019285</v>
       </c>
       <c r="K33" s="4">
-        <f>+'Dia 1'!J35</f>
-        <v>0</v>
+        <f>+'Dia 30'!J4</f>
+        <v>2343.18390804598</v>
       </c>
     </row>
     <row r="34" spans="2:11">
@@ -6441,9 +6467,9 @@
       <c r="C34" s="3"/>
       <c r="D34" s="4">
         <f>+'Dia 31'!C4</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="4">
+        <v>5000</v>
+      </c>
+      <c r="E34" s="40">
         <f>+'Dia 31'!D4</f>
         <v>0</v>
       </c>
@@ -6453,11 +6479,11 @@
       </c>
       <c r="G34" s="4">
         <f>+'Dia 31'!F4</f>
-        <v>0</v>
+        <v>633</v>
       </c>
       <c r="H34" s="4">
         <f>+'Dia 31'!G4</f>
-        <v>0</v>
+        <v>98700</v>
       </c>
       <c r="I34" s="4">
         <f>+'Dia 31'!H4</f>
@@ -6465,11 +6491,11 @@
       </c>
       <c r="J34" s="4">
         <f>+'Dia 31'!I4</f>
-        <v>0</v>
+        <v>382220</v>
       </c>
       <c r="K34" s="4">
-        <f>+'Dia 1'!J36</f>
-        <v>0</v>
+        <f>+'Dia 31'!J4</f>
+        <v>868.681818181818</v>
       </c>
     </row>
     <row r="35" spans="2:11">
@@ -6479,23 +6505,23 @@
       <c r="C35" s="1"/>
       <c r="D35" s="2">
         <f>+SUM(D4:D34)</f>
-        <v>76940</v>
-      </c>
-      <c r="E35" s="2">
+        <v>84940</v>
+      </c>
+      <c r="E35" s="41">
         <f t="shared" ref="E35:K35" si="0">+SUM(E4:E34)</f>
         <v>0</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="0"/>
-        <v>265</v>
+        <v>350</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" si="0"/>
-        <v>8960.88</v>
+        <v>15308.88</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" si="0"/>
-        <v>702645</v>
+        <v>1424695</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" si="0"/>
@@ -6503,12 +6529,16 @@
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>4931187</v>
-      </c>
-      <c r="K35" s="2">
+        <v>8483452</v>
+      </c>
+      <c r="K35" s="45">
         <f t="shared" si="0"/>
-        <v>382</v>
-      </c>
+        <v>19229.3925337898</v>
+      </c>
+    </row>
+    <row r="36" spans="6:11">
+      <c r="F36" s="18"/>
+      <c r="K36" s="18"/>
     </row>
     <row r="37" spans="3:11">
       <c r="C37" s="9" t="s">
@@ -6516,23 +6546,23 @@
       </c>
       <c r="D37" s="4">
         <f>+D35/31</f>
-        <v>2481.93548387097</v>
-      </c>
-      <c r="E37" s="4">
+        <v>2740</v>
+      </c>
+      <c r="E37" s="40">
         <f t="shared" ref="E37:K37" si="1">+E35/31</f>
         <v>0</v>
       </c>
       <c r="F37" s="4">
         <f t="shared" si="1"/>
-        <v>8.54838709677419</v>
+        <v>11.2903225806452</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" si="1"/>
-        <v>289.06064516129</v>
+        <v>493.834838709677</v>
       </c>
       <c r="H37" s="4">
         <f t="shared" si="1"/>
-        <v>22665.9677419355</v>
+        <v>45957.9032258065</v>
       </c>
       <c r="I37" s="4">
         <f t="shared" si="1"/>
@@ -6540,18 +6570,18 @@
       </c>
       <c r="J37" s="4">
         <f t="shared" si="1"/>
-        <v>159070.548387097</v>
+        <v>273659.741935484</v>
       </c>
       <c r="K37" s="4">
         <f t="shared" si="1"/>
-        <v>12.3225806451613</v>
+        <v>620.30298496096</v>
       </c>
     </row>
     <row r="38" spans="4:11">
       <c r="D38" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="42" t="s">
         <v>42</v>
       </c>
       <c r="F38" s="14" t="s">
@@ -6563,7 +6593,7 @@
       <c r="H38" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I38" s="37" t="s">
+      <c r="I38" s="44" t="s">
         <v>38</v>
       </c>
       <c r="J38" s="14" t="s">
@@ -6572,6 +6602,20 @@
       <c r="K38" s="14" t="s">
         <v>40</v>
       </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" s="37"/>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" s="18"/>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" s="18"/>
+    </row>
+    <row r="43" spans="4:6">
+      <c r="D43" s="37"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8326,7 +8370,7 @@
   <sheetPr/>
   <dimension ref="B1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -8673,8 +8717,8 @@
   <sheetPr/>
   <dimension ref="B1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -8699,7 +8743,7 @@
         <v>440</v>
       </c>
       <c r="F2">
-        <v>460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -8743,21 +8787,21 @@
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>930</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>83600</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
       </c>
       <c r="I4" s="4">
         <f>+C4+E5+F5+G4+H4+D5</f>
-        <v>0</v>
+        <v>492800</v>
       </c>
       <c r="J4" s="3">
         <f>+I4/F2</f>
-        <v>0</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -8773,7 +8817,7 @@
       </c>
       <c r="F5" s="4">
         <f>+F4*F2</f>
-        <v>0</v>
+        <v>409200</v>
       </c>
       <c r="G5" s="18"/>
       <c r="I5" s="18"/>
@@ -8790,7 +8834,7 @@
       </c>
       <c r="C8" s="2">
         <f>+I4</f>
-        <v>0</v>
+        <v>492800</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -8805,7 +8849,7 @@
       </c>
       <c r="C10" s="4">
         <f>+C42</f>
-        <v>0</v>
+        <v>13856</v>
       </c>
       <c r="D10" s="21"/>
     </row>
@@ -8900,7 +8944,7 @@
       </c>
       <c r="C24" s="2">
         <f>SUM(C10:C23)</f>
-        <v>0</v>
+        <v>13856</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -8925,13 +8969,17 @@
       <c r="B30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="3" t="s">
@@ -8967,7 +9015,7 @@
       </c>
       <c r="C37" s="4">
         <f>+I4*0.02</f>
-        <v>0</v>
+        <v>9856</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -8992,7 +9040,7 @@
       </c>
       <c r="C42" s="2">
         <f>SUM(C28:C41)</f>
-        <v>0</v>
+        <v>13856</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -9016,8 +9064,8 @@
   <sheetPr/>
   <dimension ref="B1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD47"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -9042,7 +9090,7 @@
         <v>440</v>
       </c>
       <c r="F2">
-        <v>460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -9086,21 +9134,21 @@
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>17600</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
       </c>
       <c r="I4" s="4">
         <f>+C4+E5+F5+G4+H4+D5</f>
-        <v>0</v>
+        <v>280720</v>
       </c>
       <c r="J4" s="3">
         <f>+I4/F2</f>
-        <v>0</v>
+        <v>638</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -9116,7 +9164,7 @@
       </c>
       <c r="F5" s="4">
         <f>+F4*F2</f>
-        <v>0</v>
+        <v>263120</v>
       </c>
       <c r="G5" s="18"/>
       <c r="I5" s="18"/>
@@ -9133,7 +9181,7 @@
       </c>
       <c r="C8" s="2">
         <f>+I4</f>
-        <v>0</v>
+        <v>280720</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -9148,7 +9196,7 @@
       </c>
       <c r="C10" s="4">
         <f>+C42</f>
-        <v>0</v>
+        <v>9614.4</v>
       </c>
       <c r="D10" s="21"/>
     </row>
@@ -9243,7 +9291,7 @@
       </c>
       <c r="C24" s="2">
         <f>SUM(C10:C23)</f>
-        <v>0</v>
+        <v>9614.4</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -9256,7 +9304,9 @@
       <c r="B28" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="3" t="s">
@@ -9274,7 +9324,9 @@
       <c r="B31" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="3" t="s">
@@ -9310,7 +9362,7 @@
       </c>
       <c r="C37" s="4">
         <f>+I4*0.02</f>
-        <v>0</v>
+        <v>5614.4</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -9335,7 +9387,7 @@
       </c>
       <c r="C42" s="2">
         <f>SUM(C28:C41)</f>
-        <v>0</v>
+        <v>9614.4</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -9360,7 +9412,7 @@
   <dimension ref="B1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD47"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -9385,7 +9437,7 @@
         <v>440</v>
       </c>
       <c r="F2">
-        <v>460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -9429,21 +9481,21 @@
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>587</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>44000</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
       </c>
       <c r="I4" s="4">
         <f>+C4+E5+F5+G4+H4+D5</f>
-        <v>0</v>
+        <v>302280</v>
       </c>
       <c r="J4" s="3">
         <f>+I4/F2</f>
-        <v>0</v>
+        <v>687</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -9459,7 +9511,7 @@
       </c>
       <c r="F5" s="4">
         <f>+F4*F2</f>
-        <v>0</v>
+        <v>258280</v>
       </c>
       <c r="G5" s="18"/>
       <c r="I5" s="18"/>
@@ -9476,7 +9528,7 @@
       </c>
       <c r="C8" s="2">
         <f>+I4</f>
-        <v>0</v>
+        <v>302280</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -9491,7 +9543,7 @@
       </c>
       <c r="C10" s="4">
         <f>+C42</f>
-        <v>0</v>
+        <v>10045.6</v>
       </c>
       <c r="D10" s="21"/>
     </row>
@@ -9586,7 +9638,7 @@
       </c>
       <c r="C24" s="2">
         <f>SUM(C10:C23)</f>
-        <v>0</v>
+        <v>10045.6</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -9599,7 +9651,9 @@
       <c r="B28" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="3" t="s">
@@ -9611,7 +9665,9 @@
       <c r="B30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
@@ -9653,7 +9709,7 @@
       </c>
       <c r="C37" s="4">
         <f>+I4*0.02</f>
-        <v>0</v>
+        <v>6045.6</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -9678,7 +9734,7 @@
       </c>
       <c r="C42" s="2">
         <f>SUM(C28:C41)</f>
-        <v>0</v>
+        <v>10045.6</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -9702,8 +9758,8 @@
   <sheetPr/>
   <dimension ref="B1:J58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD47"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -9712,7 +9768,7 @@
     <col min="3" max="3" width="21.3359375" customWidth="1"/>
     <col min="4" max="4" width="19.890625" customWidth="1"/>
     <col min="5" max="7" width="17.3359375" customWidth="1"/>
-    <col min="8" max="8" width="16.3359375" customWidth="1"/>
+    <col min="8" max="8" width="34.9375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
@@ -9728,7 +9784,7 @@
         <v>440</v>
       </c>
       <c r="F2">
-        <v>460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -9763,30 +9819,30 @@
     <row r="4" spans="2:10">
       <c r="B4" s="15"/>
       <c r="C4" s="16">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="D4" s="16">
         <v>0</v>
       </c>
       <c r="E4" s="4">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>19100</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
       </c>
       <c r="I4" s="4">
         <f>+C4+E5+F5+G4+H4+D5</f>
-        <v>0</v>
+        <v>196780</v>
       </c>
       <c r="J4" s="3">
         <f>+I4/F2</f>
-        <v>0</v>
+        <v>447.227272727273</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -9798,11 +9854,11 @@
       </c>
       <c r="E5" s="4">
         <f>+E4*E2</f>
-        <v>0</v>
+        <v>24200</v>
       </c>
       <c r="F5" s="4">
         <f>+F4*F2</f>
-        <v>0</v>
+        <v>150480</v>
       </c>
       <c r="G5" s="18"/>
       <c r="I5" s="18"/>
@@ -9819,7 +9875,7 @@
       </c>
       <c r="C8" s="2">
         <f>+I4</f>
-        <v>0</v>
+        <v>196780</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -9834,7 +9890,7 @@
       </c>
       <c r="C10" s="4">
         <f>+C42</f>
-        <v>0</v>
+        <v>3935.6</v>
       </c>
       <c r="D10" s="21"/>
     </row>
@@ -9929,7 +9985,7 @@
       </c>
       <c r="C24" s="2">
         <f>SUM(C10:C23)</f>
-        <v>0</v>
+        <v>3935.6</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -9996,7 +10052,7 @@
       </c>
       <c r="C37" s="4">
         <f>+I4*0.02</f>
-        <v>0</v>
+        <v>3935.6</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -10021,7 +10077,7 @@
       </c>
       <c r="C42" s="2">
         <f>SUM(C28:C41)</f>
-        <v>0</v>
+        <v>3935.6</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -10078,8 +10134,8 @@
   <sheetPr/>
   <dimension ref="B5:AH17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AH6" sqref="AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -10283,11 +10339,11 @@
       </c>
       <c r="Z6" s="30">
         <f>+'Dia 24'!C28</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="AA6" s="30">
         <f>+'Dia 25'!C28</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="AB6" s="30">
         <f>+'Dia 26'!C28</f>
@@ -10295,15 +10351,15 @@
       </c>
       <c r="AC6" s="30">
         <f>+'Dia 27'!C28</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="AD6" s="30">
         <f>+'Dia 28'!C28</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="AE6" s="30">
         <f>+'Dia 29'!C28</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="AF6" s="30">
         <f>+'Dia 30'!C28</f>
@@ -10315,7 +10371,7 @@
       </c>
       <c r="AH6" s="30">
         <f>SUM(C6:AG6)</f>
-        <v>18000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="7" spans="2:34">
@@ -10545,7 +10601,7 @@
       </c>
       <c r="Y8" s="30">
         <f>+'Dia 23'!C30</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="Z8" s="30">
         <f>+'Dia 24'!C30</f>
@@ -10553,7 +10609,7 @@
       </c>
       <c r="AA8" s="30">
         <f>+'Dia 25'!C30</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="AB8" s="30">
         <f>+'Dia 26'!C30</f>
@@ -10569,19 +10625,19 @@
       </c>
       <c r="AE8" s="30">
         <f>+'Dia 29'!C30</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="AF8" s="30">
         <f>+'Dia 30'!C30</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="AG8" s="30">
         <f>+'Dia 31'!C30</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="AH8" s="30">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="9" spans="2:34">
@@ -10678,11 +10734,11 @@
       </c>
       <c r="Y9" s="30">
         <f>+'Dia 23'!C31</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="Z9" s="30">
         <f>+'Dia 24'!C31</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="AA9" s="30">
         <f>+'Dia 25'!C31</f>
@@ -10706,7 +10762,7 @@
       </c>
       <c r="AF9" s="30">
         <f>+'Dia 30'!C31</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="AG9" s="30">
         <f>+'Dia 31'!C31</f>
@@ -10714,7 +10770,7 @@
       </c>
       <c r="AH9" s="30">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="10" spans="2:34">
@@ -10827,11 +10883,11 @@
       </c>
       <c r="AC10" s="30">
         <f>+'Dia 27'!C32</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="AD10" s="30">
         <f>+'Dia 28'!C32</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="AE10" s="30">
         <f>+'Dia 29'!C32</f>
@@ -10843,11 +10899,11 @@
       </c>
       <c r="AG10" s="30">
         <f>+'Dia 31'!C32</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="AH10" s="30">
         <f t="shared" si="0"/>
-        <v>16000</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="11" spans="2:34">
@@ -11473,15 +11529,15 @@
       </c>
       <c r="Y15" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="Z15" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="AA15" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="AB15" s="30">
         <f t="shared" si="1"/>
@@ -11489,27 +11545,27 @@
       </c>
       <c r="AC15" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="AD15" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="AE15" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="AF15" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="AG15" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="AH15" s="30">
         <f t="shared" si="0"/>
-        <v>80291</v>
+        <v>112291</v>
       </c>
     </row>
     <row r="17" spans="3:33">
@@ -11649,8 +11705,8 @@
   <sheetPr/>
   <dimension ref="B1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD47"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -11659,7 +11715,7 @@
     <col min="3" max="3" width="21.3359375" customWidth="1"/>
     <col min="4" max="4" width="19.890625" customWidth="1"/>
     <col min="5" max="7" width="17.3359375" customWidth="1"/>
-    <col min="8" max="8" width="16.3359375" customWidth="1"/>
+    <col min="8" max="8" width="34.9375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
@@ -11675,7 +11731,7 @@
         <v>440</v>
       </c>
       <c r="F2">
-        <v>460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -11719,21 +11775,21 @@
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>13200</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
       </c>
       <c r="I4" s="4">
         <f>+C4+E5+F5+G4+H4+D5</f>
-        <v>0</v>
+        <v>275440</v>
       </c>
       <c r="J4" s="3">
         <f>+I4/F2</f>
-        <v>0</v>
+        <v>626</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -11749,7 +11805,7 @@
       </c>
       <c r="F5" s="4">
         <f>+F4*F2</f>
-        <v>0</v>
+        <v>262240</v>
       </c>
       <c r="G5" s="18"/>
       <c r="I5" s="18"/>
@@ -11766,7 +11822,7 @@
       </c>
       <c r="C8" s="2">
         <f>+I4</f>
-        <v>0</v>
+        <v>275440</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -11781,7 +11837,7 @@
       </c>
       <c r="C10" s="4">
         <f>+C42</f>
-        <v>0</v>
+        <v>9508.8</v>
       </c>
       <c r="D10" s="21"/>
     </row>
@@ -11876,7 +11932,7 @@
       </c>
       <c r="C24" s="2">
         <f>SUM(C10:C23)</f>
-        <v>0</v>
+        <v>9508.8</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -11889,7 +11945,9 @@
       <c r="B28" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="3" t="s">
@@ -11913,7 +11971,9 @@
       <c r="B32" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="3" t="s">
@@ -11943,7 +12003,7 @@
       </c>
       <c r="C37" s="4">
         <f>+I4*0.02</f>
-        <v>0</v>
+        <v>5508.8</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -11968,7 +12028,7 @@
       </c>
       <c r="C42" s="2">
         <f>SUM(C28:C41)</f>
-        <v>0</v>
+        <v>9508.8</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -11993,7 +12053,7 @@
   <dimension ref="B1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD47"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -12002,7 +12062,7 @@
     <col min="3" max="3" width="21.3359375" customWidth="1"/>
     <col min="4" max="4" width="19.890625" customWidth="1"/>
     <col min="5" max="7" width="17.3359375" customWidth="1"/>
-    <col min="8" max="8" width="16.3359375" customWidth="1"/>
+    <col min="8" max="8" width="34.9375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
@@ -12018,7 +12078,7 @@
         <v>440</v>
       </c>
       <c r="F2">
-        <v>460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -12059,24 +12119,24 @@
         <v>0</v>
       </c>
       <c r="E4" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>88000</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
       </c>
       <c r="I4" s="4">
         <f>+C4+E5+F5+G4+H4+D5</f>
-        <v>0</v>
+        <v>236280</v>
       </c>
       <c r="J4" s="3">
         <f>+I4/F2</f>
-        <v>0</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -12088,11 +12148,11 @@
       </c>
       <c r="E5" s="4">
         <f>+E4*E2</f>
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="F5" s="4">
         <f>+F4*F2</f>
-        <v>0</v>
+        <v>143880</v>
       </c>
       <c r="G5" s="18"/>
       <c r="I5" s="18"/>
@@ -12109,7 +12169,7 @@
       </c>
       <c r="C8" s="2">
         <f>+I4</f>
-        <v>0</v>
+        <v>236280</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -12124,7 +12184,7 @@
       </c>
       <c r="C10" s="4">
         <f>+C42</f>
-        <v>0</v>
+        <v>8725.6</v>
       </c>
       <c r="D10" s="21"/>
     </row>
@@ -12219,7 +12279,7 @@
       </c>
       <c r="C24" s="2">
         <f>SUM(C10:C23)</f>
-        <v>0</v>
+        <v>8725.6</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -12232,7 +12292,9 @@
       <c r="B28" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="3" t="s">
@@ -12256,7 +12318,9 @@
       <c r="B32" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="3" t="s">
@@ -12286,7 +12350,7 @@
       </c>
       <c r="C37" s="4">
         <f>+I4*0.02</f>
-        <v>0</v>
+        <v>4725.6</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -12311,7 +12375,7 @@
       </c>
       <c r="C42" s="2">
         <f>SUM(C28:C41)</f>
-        <v>0</v>
+        <v>8725.6</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -12335,8 +12399,8 @@
   <sheetPr/>
   <dimension ref="B1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD47"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -12345,7 +12409,7 @@
     <col min="3" max="3" width="21.3359375" customWidth="1"/>
     <col min="4" max="4" width="19.890625" customWidth="1"/>
     <col min="5" max="7" width="17.3359375" customWidth="1"/>
-    <col min="8" max="8" width="16.3359375" customWidth="1"/>
+    <col min="8" max="8" width="34.9375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
@@ -12361,7 +12425,7 @@
         <v>440</v>
       </c>
       <c r="F2">
-        <v>460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -12405,21 +12469,21 @@
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>694</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>61100</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
       </c>
       <c r="I4" s="4">
         <f>+C4+E5+F5+G4+H4+D5</f>
-        <v>0</v>
+        <v>366460</v>
       </c>
       <c r="J4" s="3">
         <f>+I4/F2</f>
-        <v>0</v>
+        <v>832.863636363636</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -12435,7 +12499,7 @@
       </c>
       <c r="F5" s="4">
         <f>+F4*F2</f>
-        <v>0</v>
+        <v>305360</v>
       </c>
       <c r="G5" s="18"/>
       <c r="I5" s="18"/>
@@ -12452,7 +12516,7 @@
       </c>
       <c r="C8" s="2">
         <f>+I4</f>
-        <v>0</v>
+        <v>366460</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -12467,7 +12531,7 @@
       </c>
       <c r="C10" s="4">
         <f>+C42</f>
-        <v>0</v>
+        <v>11329.2</v>
       </c>
       <c r="D10" s="21"/>
     </row>
@@ -12562,7 +12626,7 @@
       </c>
       <c r="C24" s="2">
         <f>SUM(C10:C23)</f>
-        <v>0</v>
+        <v>11329.2</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -12575,7 +12639,9 @@
       <c r="B28" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="3" t="s">
@@ -12587,7 +12653,9 @@
       <c r="B30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
@@ -12629,7 +12697,7 @@
       </c>
       <c r="C37" s="4">
         <f>+I4*0.02</f>
-        <v>0</v>
+        <v>7329.2</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -12654,7 +12722,7 @@
       </c>
       <c r="C42" s="2">
         <f>SUM(C28:C41)</f>
-        <v>0</v>
+        <v>11329.2</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -12678,8 +12746,8 @@
   <sheetPr/>
   <dimension ref="B1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD47"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -12688,7 +12756,8 @@
     <col min="3" max="3" width="21.3359375" customWidth="1"/>
     <col min="4" max="4" width="19.890625" customWidth="1"/>
     <col min="5" max="7" width="17.3359375" customWidth="1"/>
-    <col min="8" max="8" width="16.3359375" customWidth="1"/>
+    <col min="8" max="8" width="34.9375" customWidth="1"/>
+    <col min="9" max="9" width="13.3125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
@@ -12701,10 +12770,10 @@
         <v>440</v>
       </c>
       <c r="E2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F2">
-        <v>460</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -12745,24 +12814,24 @@
         <v>0</v>
       </c>
       <c r="E4" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>1641</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>296750</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
       </c>
       <c r="I4" s="4">
         <f>+C4+E5+F5+G4+H4+D5</f>
-        <v>0</v>
+        <v>1019285</v>
       </c>
       <c r="J4" s="3">
         <f>+I4/F2</f>
-        <v>0</v>
+        <v>2343.18390804598</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -12774,11 +12843,11 @@
       </c>
       <c r="E5" s="4">
         <f>+E4*E2</f>
-        <v>0</v>
+        <v>8700</v>
       </c>
       <c r="F5" s="4">
         <f>+F4*F2</f>
-        <v>0</v>
+        <v>713835</v>
       </c>
       <c r="G5" s="18"/>
       <c r="I5" s="18"/>
@@ -12795,7 +12864,7 @@
       </c>
       <c r="C8" s="2">
         <f>+I4</f>
-        <v>0</v>
+        <v>1019285</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -12810,7 +12879,7 @@
       </c>
       <c r="C10" s="4">
         <f>+C42</f>
-        <v>0</v>
+        <v>24385.7</v>
       </c>
       <c r="D10" s="21"/>
     </row>
@@ -12905,7 +12974,7 @@
       </c>
       <c r="C24" s="2">
         <f>SUM(C10:C23)</f>
-        <v>0</v>
+        <v>24385.7</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -12930,13 +12999,17 @@
       <c r="B30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="3" t="s">
@@ -12972,7 +13045,7 @@
       </c>
       <c r="C37" s="4">
         <f>+I4*0.02</f>
-        <v>0</v>
+        <v>20385.7</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -12997,7 +13070,7 @@
       </c>
       <c r="C42" s="2">
         <f>SUM(C28:C41)</f>
-        <v>0</v>
+        <v>24385.7</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -13022,7 +13095,7 @@
   <dimension ref="B1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B23"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -13031,7 +13104,7 @@
     <col min="3" max="3" width="21.3359375" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
     <col min="5" max="7" width="17.3359375" customWidth="1"/>
-    <col min="8" max="8" width="16.3359375" customWidth="1"/>
+    <col min="8" max="8" width="34.9375" customWidth="1"/>
     <col min="9" max="9" width="15.4453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13048,7 +13121,7 @@
         <v>440</v>
       </c>
       <c r="F2">
-        <v>460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -13083,7 +13156,7 @@
     <row r="4" spans="2:10">
       <c r="B4" s="15"/>
       <c r="C4" s="16">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D4" s="16">
         <v>0</v>
@@ -13092,21 +13165,21 @@
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>633</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>98700</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
       </c>
       <c r="I4" s="4">
         <f>+C4+E5+F5+G4+H4+D5</f>
-        <v>0</v>
+        <v>382220</v>
       </c>
       <c r="J4" s="3">
         <f>+I4/F2</f>
-        <v>0</v>
+        <v>868.681818181818</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -13122,7 +13195,7 @@
       </c>
       <c r="F5" s="4">
         <f>+F4*F2</f>
-        <v>0</v>
+        <v>278520</v>
       </c>
       <c r="G5" s="18"/>
       <c r="I5" s="18"/>
@@ -13139,7 +13212,7 @@
       </c>
       <c r="C8" s="2">
         <f>+I4</f>
-        <v>0</v>
+        <v>382220</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -13154,7 +13227,7 @@
       </c>
       <c r="C10" s="4">
         <f>+C42</f>
-        <v>0</v>
+        <v>11644.4</v>
       </c>
       <c r="D10" s="21"/>
     </row>
@@ -13249,7 +13322,7 @@
       </c>
       <c r="C24" s="2">
         <f>SUM(C10:C23)</f>
-        <v>0</v>
+        <v>11644.4</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -13274,7 +13347,9 @@
       <c r="B30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
@@ -13286,7 +13361,9 @@
       <c r="B32" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="3" t="s">
@@ -13316,7 +13393,7 @@
       </c>
       <c r="C37" s="4">
         <f>+I4*0.02</f>
-        <v>0</v>
+        <v>7644.4</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -13341,7 +13418,7 @@
       </c>
       <c r="C42" s="2">
         <f>SUM(C28:C41)</f>
-        <v>0</v>
+        <v>11644.4</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -13387,7 +13464,7 @@
       </c>
       <c r="C6" s="2">
         <f>+Ventas!J35</f>
-        <v>4931187</v>
+        <v>8483452</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -13396,7 +13473,7 @@
       </c>
       <c r="C7" s="4">
         <f>+C6*0.1</f>
-        <v>493118.7</v>
+        <v>848345.2</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -13405,7 +13482,7 @@
       </c>
       <c r="C8" s="6">
         <f>+(C6-3260)*0.05</f>
-        <v>246396.35</v>
+        <v>424009.6</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -13414,7 +13491,7 @@
       </c>
       <c r="C9" s="8">
         <f>+C6-C7-C8</f>
-        <v>4191671.95</v>
+        <v>7211097.2</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -13432,11 +13509,11 @@
       </c>
       <c r="C11" s="4">
         <f>+'Dia 1'!C10+'Dia 2'!C10+'Dia 3'!C10+'Dia 4'!C10+'Dia 5'!C10+'Dia 6'!C10+'Dia 7'!C10+'Dia 8'!C10+'Dia 9'!C10+'Dia 10'!C10+'Dia 11'!C10+'Dia 12'!C10+'Dia 13'!C10+'Dia 14'!C10+'Dia 15'!C10+'Dia 16'!C10+'Dia 17'!C10+'Dia 18'!C10+'Dia 19'!C10+'Dia 20'!C10+'Dia 21'!C10+'Dia 22'!C10+'Dia 23'!C10+'Dia 24'!C10+'Dia 25'!C10+'Dia 26'!C10+'Dia 27'!C10+'Dia 28'!C10+'Dia 29'!C10+'Dia 30'!C10+'Dia 31'!C10</f>
-        <v>268683.74</v>
+        <v>371729.04</v>
       </c>
       <c r="D11" s="11">
         <f t="shared" ref="D11:D24" si="0">+C11/$C$25</f>
-        <v>0.728962541863621</v>
+        <v>0.788180982239771</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -13501,7 +13578,7 @@
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>0.00176350698487133</v>
+        <v>0.00137820181725875</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -13514,7 +13591,7 @@
       </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
-        <v>0.183133417659716</v>
+        <v>0.143120957946101</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -13527,7 +13604,7 @@
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>0.0671489198085624</v>
+        <v>0.052477684580237</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -13553,7 +13630,7 @@
       </c>
       <c r="D20" s="11">
         <f t="shared" si="0"/>
-        <v>0.0189916136832298</v>
+        <v>0.0148421734166327</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -13614,7 +13691,7 @@
       </c>
       <c r="C25" s="2">
         <f>SUM(C11:C24)</f>
-        <v>368583.74</v>
+        <v>471629.04</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -13624,7 +13701,7 @@
       </c>
       <c r="C26" s="4">
         <f>+C9-C25</f>
-        <v>3823088.21</v>
+        <v>6739468.16</v>
       </c>
     </row>
     <row r="28" spans="2:3">
@@ -13639,7 +13716,7 @@
       </c>
       <c r="C29" s="4">
         <f>+C11*0.125</f>
-        <v>33585.4675</v>
+        <v>46466.13</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -13648,7 +13725,7 @@
       </c>
       <c r="C30" s="4">
         <f>+C11*0.05</f>
-        <v>13434.187</v>
+        <v>18586.452</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -13657,7 +13734,7 @@
       </c>
       <c r="C31" s="2">
         <f>SUM(C29:C30)</f>
-        <v>47019.6545</v>
+        <v>65052.582</v>
       </c>
     </row>
     <row r="32" spans="2:3">
@@ -13666,7 +13743,7 @@
       </c>
       <c r="C32" s="2">
         <f>+C26-C31</f>
-        <v>3776068.5555</v>
+        <v>6674415.578</v>
       </c>
     </row>
     <row r="33" spans="2:3">
@@ -13675,7 +13752,7 @@
       </c>
       <c r="C33" s="2">
         <f>+C32*0.35</f>
-        <v>1321623.994425</v>
+        <v>2336045.4523</v>
       </c>
     </row>
     <row r="34" spans="2:3">
@@ -13684,7 +13761,7 @@
       </c>
       <c r="C34" s="2">
         <f>+C32-C33</f>
-        <v>2454444.561075</v>
+        <v>4338370.1257</v>
       </c>
     </row>
     <row r="36" spans="2:3">
@@ -13702,7 +13779,7 @@
       </c>
       <c r="C37" s="3">
         <f>+C25/C6</f>
-        <v>0.0747454395868581</v>
+        <v>0.0555940011212417</v>
       </c>
     </row>
   </sheetData>
@@ -13716,7 +13793,7 @@
   <sheetPr/>
   <dimension ref="B1:J48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
